--- a/2 четверть_2_Программист_old_new_Python.xlsx
+++ b/2 четверть_2_Программист_old_new_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework_hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8018BC61-1E29-49E2-92E0-0E215D9918B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03256A-5676-494D-8D7D-0D5C191144A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Сергей 1-6" sheetId="12" r:id="rId1"/>
@@ -30567,12 +30567,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="98" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -31762,7 +31770,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -31787,49 +31795,49 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -31838,35 +31846,53 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -31874,98 +31900,80 @@
     <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -31974,41 +31982,41 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="64" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="65" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32017,43 +32025,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="79" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="80" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="84" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="85" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32065,16 +32073,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -32083,61 +32094,85 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="80" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="79" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -32146,109 +32181,82 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32257,7 +32265,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32269,7 +32277,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32281,7 +32289,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32296,10 +32304,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32308,16 +32316,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32344,7 +32352,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32353,7 +32361,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32362,88 +32370,88 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32452,85 +32460,85 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="92" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="93" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32545,34 +32553,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="92" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="93" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32590,13 +32598,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32623,85 +32631,85 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32716,19 +32724,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="96" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="97" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="95" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="96" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32761,25 +32769,25 @@
     <xf numFmtId="49" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32791,19 +32799,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34130,7 +34138,7 @@
   </sheetPr>
   <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
@@ -40916,8 +40924,8 @@
   </sheetPr>
   <dimension ref="A1:Z280"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C127" sqref="A127:C127"/>
+    <sheetView tabSelected="1" topLeftCell="P114" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S115" sqref="S115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/2 четверть_2_Программист_old_new_Python.xlsx
+++ b/2 четверть_2_Программист_old_new_Python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0130031-9440-4710-90A9-F6B100BB42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D971C-90FB-482E-9B26-B25A58D84A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Альбина 1-11" sheetId="1" r:id="rId1"/>
@@ -16548,12 +16548,6 @@
 #['е', 'г', 'о', 'д', 'н', 'я', 'я', 'н', 'в', 'а', 'р', 'я', 'г', 'о', 'д', 'а', 'у', 'р', 'о', 'к', 'п', 'о', 'л', 'е', 'д', 'у', 'ю', 'щ', 'и', 'й', 'ф', 'е', 'в', 'р', 'а', 'л', 'я', 'г', 'о', 'д', 'а']</t>
   </si>
   <si>
-    <t>pattern = re.compile(r'[а-яё]')
-result = pattern.findall(text)
-print(result)
-#['С', 'С']</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[а-яё] Выводит list список из </t>
     </r>
@@ -30551,6 +30545,12 @@
 Функция sys.orig_argv (доступна с версии Python 3.10) возвращает список исходных аргументов командной строки, переданных исполняемому файлу Python.
 Для удобного разбора параметров, переданных в командную строку стоит посмотреть в сторону встроенных модулей, специализирующихся на этой проблеме argparse и getopt.</t>
     </r>
+  </si>
+  <si>
+    <t>pattern = re.compile(r'[А-ЯЁ]')
+result = pattern.findall(text)
+print(result)
+#['С', 'С']</t>
   </si>
 </sst>
 </file>
@@ -33877,8 +33877,8 @@
   </sheetPr>
   <dimension ref="A1:Z280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R266" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W271" sqref="W271"/>
+    <sheetView tabSelected="1" topLeftCell="E218" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34017,7 +34017,7 @@
         <v>35</v>
       </c>
       <c r="N6" s="105" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>80</v>
@@ -34222,7 +34222,7 @@
         <v>42</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -34647,7 +34647,7 @@
         <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>902</v>
@@ -34656,13 +34656,13 @@
         <v>104</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>145</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>122</v>
@@ -34712,28 +34712,28 @@
     </row>
     <row r="29" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A29" s="108" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B29" s="108" t="s">
         <v>1413</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="C29" s="108" t="s">
         <v>1414</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="D29" s="108" t="s">
         <v>1415</v>
       </c>
-      <c r="D29" s="108" t="s">
-        <v>1416</v>
-      </c>
       <c r="F29" s="108" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H29" s="114" t="s">
         <v>1428</v>
       </c>
-      <c r="G29" s="108" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H29" s="114" t="s">
+      <c r="I29" s="108" t="s">
         <v>1429</v>
-      </c>
-      <c r="I29" s="108" t="s">
-        <v>1430</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>125</v>
@@ -34930,7 +34930,7 @@
         <v>272</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>191</v>
@@ -34951,7 +34951,7 @@
         <v>175</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>62</v>
@@ -34990,7 +34990,7 @@
         <v>229</v>
       </c>
       <c r="L44" s="118" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>230</v>
@@ -35140,7 +35140,7 @@
         <v>223</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>216</v>
@@ -35397,7 +35397,7 @@
       </c>
       <c r="L61" s="12"/>
       <c r="P61" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Q61" s="17"/>
       <c r="R61" s="17" t="s">
@@ -35410,7 +35410,7 @@
     <row r="62" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="L62" s="12"/>
       <c r="P62" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>334</v>
@@ -35429,7 +35429,7 @@
       <c r="G63" s="1"/>
       <c r="L63" s="12"/>
       <c r="P63" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="2" t="s">
@@ -35513,7 +35513,7 @@
       <c r="L68" s="12"/>
       <c r="M68" s="2"/>
       <c r="P68" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Q68" s="29"/>
       <c r="R68" s="30" t="s">
@@ -35523,7 +35523,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="7:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="L69" s="12"/>
       <c r="M69" s="2"/>
       <c r="P69" s="2" t="s">
@@ -35579,7 +35579,7 @@
       <c r="L73" s="12"/>
       <c r="M73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q73" s="17"/>
       <c r="R73" s="38" t="s">
@@ -35612,7 +35612,7 @@
       <c r="L75" s="12"/>
       <c r="M75" s="2"/>
       <c r="P75" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="17" t="s">
@@ -35662,13 +35662,13 @@
       <c r="L78" s="12"/>
       <c r="M78" s="2"/>
       <c r="P78" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="R78" s="100" t="s">
         <v>1395</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="R78" s="100" t="s">
-        <v>1396</v>
       </c>
       <c r="S78" s="33"/>
       <c r="U78" s="34"/>
@@ -35678,7 +35678,7 @@
       <c r="L79" s="12"/>
       <c r="M79" s="2"/>
       <c r="P79" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q79" s="15"/>
       <c r="R79" s="17" t="s">
@@ -35734,13 +35734,13 @@
       <c r="L83" s="12"/>
       <c r="M83" s="2"/>
       <c r="P83" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="R83" s="162" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="S83" s="2"/>
     </row>
@@ -35748,13 +35748,13 @@
       <c r="L84" s="12"/>
       <c r="M84" s="2"/>
       <c r="P84" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>1528</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>1529</v>
       </c>
       <c r="S84" s="2"/>
     </row>
@@ -36096,7 +36096,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="F97" s="42" t="s">
@@ -36538,7 +36538,7 @@
         <v>488</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D117" s="2"/>
       <c r="F117" s="2" t="s">
@@ -36582,7 +36582,7 @@
         <v>489</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D118" s="2"/>
       <c r="F118" s="2" t="s">
@@ -36680,10 +36680,10 @@
         <v>645</v>
       </c>
       <c r="H121" s="111" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>1420</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>1421</v>
       </c>
       <c r="L121" s="12"/>
       <c r="P121" s="1" t="s">
@@ -36705,10 +36705,10 @@
         <v>516</v>
       </c>
       <c r="H122" s="111" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>1419</v>
       </c>
       <c r="L122" s="12"/>
       <c r="P122" s="1" t="s">
@@ -36732,10 +36732,10 @@
         <v>518</v>
       </c>
       <c r="H123" s="111" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>1422</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>1423</v>
       </c>
       <c r="L123" s="12"/>
       <c r="P123" s="1" t="s">
@@ -36774,10 +36774,10 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="111" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>1425</v>
       </c>
       <c r="L125" s="12"/>
       <c r="P125" s="1"/>
@@ -36827,11 +36827,11 @@
       <c r="C129" s="49"/>
       <c r="D129" s="49"/>
       <c r="F129" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="112" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="L129" s="12"/>
     </row>
@@ -37400,7 +37400,7 @@
         <v>652</v>
       </c>
       <c r="R178" s="261" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="S178" s="2"/>
       <c r="U178" s="1"/>
@@ -37474,7 +37474,7 @@
         <v>909</v>
       </c>
       <c r="M183" s="104" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="P183" s="2" t="s">
         <v>972</v>
@@ -37540,7 +37540,7 @@
         <v>977</v>
       </c>
       <c r="V184" s="98" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W184" s="2" t="s">
         <v>986</v>
@@ -37586,7 +37586,7 @@
         <v>996</v>
       </c>
       <c r="U185" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="V185" s="2" t="s">
         <v>978</v>
@@ -37632,7 +37632,7 @@
         <v>979</v>
       </c>
       <c r="V186" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="W186" s="2" t="s">
         <v>988</v>
@@ -37820,10 +37820,10 @@
         <v>901</v>
       </c>
       <c r="U191" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V191" s="98" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="203" x14ac:dyDescent="0.35">
@@ -37954,7 +37954,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.35">
@@ -37977,7 +37977,7 @@
         <v>61</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="U203" s="7" t="s">
         <v>34</v>
@@ -38007,28 +38007,28 @@
         <v>1020</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P204" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q204" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="Q204" s="2" t="s">
+      <c r="R204" s="90" t="s">
+        <v>1242</v>
+      </c>
+      <c r="S204" s="2" t="s">
         <v>1112</v>
-      </c>
-      <c r="R204" s="90" t="s">
-        <v>1243</v>
-      </c>
-      <c r="S204" s="2" t="s">
-        <v>1113</v>
       </c>
       <c r="U204" s="2" t="s">
         <v>997</v>
@@ -38037,7 +38037,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>1005</v>
       </c>
@@ -38057,19 +38057,19 @@
         <v>1024</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R205" s="76" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="U205" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="206" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
@@ -38093,10 +38093,10 @@
       </c>
       <c r="M206" s="2"/>
       <c r="N206" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="207" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
@@ -38119,27 +38119,27 @@
         <v>1024</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N207" s="2" t="s">
         <v>1116</v>
-      </c>
-      <c r="M207" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="N207" s="2" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="208" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="70" t="s">
         <v>1082</v>
       </c>
-      <c r="C208" s="70" t="s">
+      <c r="D208" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>1025</v>
@@ -38148,27 +38148,27 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="N208" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="U208" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="V208" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="V208" s="2" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="232" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="70" t="s">
         <v>1086</v>
       </c>
-      <c r="C209" s="70" t="s">
+      <c r="D209" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>1032</v>
@@ -38183,36 +38183,36 @@
         <v>1026</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="U209" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V209" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="V209" s="2" t="s">
+      <c r="W209" s="2" t="s">
         <v>1097</v>
-      </c>
-      <c r="W209" s="2" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="70" t="s">
         <v>1090</v>
       </c>
-      <c r="C210" s="70" t="s">
+      <c r="D210" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>1033</v>
@@ -38224,13 +38224,13 @@
         <v>1027</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="U210" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V210" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
@@ -38247,10 +38247,10 @@
         <v>1028</v>
       </c>
       <c r="U211" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="V211" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="V211" s="2" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
@@ -38324,7 +38324,7 @@
         <v>1055</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I218" s="2" t="s">
         <v>1057</v>
@@ -38336,90 +38336,90 @@
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2" t="s">
-        <v>1058</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F220" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H220" s="70" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="221" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F221" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="H221" s="70" t="s">
         <v>1062</v>
-      </c>
-      <c r="H221" s="70" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="222" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="F222" s="71" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H222" s="70" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="223" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="F223" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="224" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F224" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="72" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="225" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F225" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="226" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F226" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H226" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I226" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F227" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H227" s="2"/>
     </row>
     <row r="228" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="F228" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.35">
@@ -38447,7 +38447,7 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="232" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -38472,225 +38472,225 @@
     </row>
     <row r="233" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F233" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H233" s="77" t="s">
         <v>1130</v>
       </c>
-      <c r="G233" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H233" s="77" t="s">
+      <c r="I233" s="81" t="s">
         <v>1131</v>
-      </c>
-      <c r="I233" s="81" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2"/>
       <c r="C234" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F234" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="G234" s="2" t="s">
-        <v>1135</v>
-      </c>
       <c r="H234" s="77" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I234" s="82" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F235" s="80" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H235" s="77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I235" s="81" t="s">
         <v>1136</v>
-      </c>
-      <c r="H235" s="77" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I235" s="81" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="236" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A236" s="77" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F236" s="79" t="s">
         <v>1138</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F236" s="79" t="s">
-        <v>1139</v>
-      </c>
       <c r="G236" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H236" s="83" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I236" s="81" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1148</v>
-      </c>
       <c r="D237" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="82" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="238" spans="1:21" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2"/>
       <c r="C238" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I238" s="84" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C239" s="77" t="s">
         <v>1152</v>
       </c>
-      <c r="C239" s="77" t="s">
+      <c r="D239" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>1154</v>
-      </c>
       <c r="F239" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H239" s="77" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I239" s="81" t="s">
         <v>1163</v>
-      </c>
-      <c r="I239" s="81" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="240" spans="1:21" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2"/>
       <c r="C240" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>1156</v>
-      </c>
       <c r="I240" s="82" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="241" spans="1:23" ht="290" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C241" s="77" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="C241" s="77" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>1159</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="242" spans="1:23" ht="232" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C242" s="77" t="s">
         <v>1160</v>
       </c>
-      <c r="C242" s="77" t="s">
+      <c r="D242" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="243" spans="1:23" ht="203" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C243" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="C243" s="77" t="s">
-        <v>1169</v>
-      </c>
       <c r="D243" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V243" s="2"/>
     </row>
     <row r="244" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C244" s="77" t="s">
         <v>1170</v>
-      </c>
-      <c r="C244" s="77" t="s">
-        <v>1171</v>
       </c>
       <c r="V244" s="2"/>
     </row>
     <row r="245" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C245" s="77" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>1172</v>
-      </c>
-      <c r="C245" s="77" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>1173</v>
       </c>
       <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:23" ht="232" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C246" s="77" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="C246" s="77" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>1176</v>
       </c>
       <c r="V246" s="2"/>
     </row>
@@ -38721,373 +38721,373 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="250" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="85" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C250" s="1"/>
       <c r="F250" s="85" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G250" s="78"/>
       <c r="H250" s="2"/>
       <c r="K250" s="85" t="s">
+        <v>1188</v>
+      </c>
+      <c r="P250" s="85" t="s">
         <v>1189</v>
       </c>
-      <c r="P250" s="85" t="s">
-        <v>1190</v>
-      </c>
       <c r="U250" s="92" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="251" spans="1:23" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C251" s="86" t="s">
         <v>1191</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="C251" s="86" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>1258</v>
-      </c>
       <c r="F251" s="94" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G251" s="19"/>
       <c r="H251" s="95" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="P251" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q251" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R251" s="93" t="s">
         <v>1272</v>
       </c>
-      <c r="Q251" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="R251" s="93" t="s">
-        <v>1273</v>
-      </c>
       <c r="U251" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="V251" s="90" t="s">
+        <v>1241</v>
+      </c>
+      <c r="W251" s="81" t="s">
         <v>1240</v>
-      </c>
-      <c r="V251" s="90" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W251" s="81" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="252" spans="1:23" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>1221</v>
-      </c>
       <c r="C252" s="89" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D252" s="81" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F252" s="87" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H252" s="86" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K252" s="87" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M252" s="86" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N252" s="81" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="P252" s="87" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R252" s="89" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S252" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="S252" s="2" t="s">
-        <v>1219</v>
-      </c>
       <c r="V252" s="93" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="W252" s="82" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="253" spans="1:23" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D253" s="91" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F253" s="87" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H253" s="89" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I253" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="I253" s="2" t="s">
-        <v>1212</v>
-      </c>
       <c r="N253" s="82" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="P253" s="87" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R253" s="86" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="U253" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="V253" s="95" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="W253" s="96" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="254" spans="1:23" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C254" s="55" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D254" s="81" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F254" s="87" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H254" s="86" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K254" s="87" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M254" s="86" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P254" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="R254" s="93" t="s">
+        <v>1288</v>
+      </c>
+      <c r="S254" s="81" t="s">
         <v>1229</v>
       </c>
-      <c r="R254" s="93" t="s">
-        <v>1289</v>
-      </c>
-      <c r="S254" s="81" t="s">
-        <v>1230</v>
-      </c>
       <c r="U254" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V254" s="19"/>
       <c r="W254" s="97" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="255" spans="1:23" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2"/>
       <c r="C255" s="55"/>
       <c r="D255" s="82" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F255" s="87" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H255" s="214" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I255" s="81" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K255" s="87" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M255" s="89" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N255" s="81" t="s">
         <v>1235</v>
-      </c>
-      <c r="K255" s="87" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M255" s="89" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N255" s="81" t="s">
-        <v>1236</v>
       </c>
       <c r="R255" s="90"/>
       <c r="S255" s="82" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U255" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="V255" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="W255" s="95" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="256" spans="1:23" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C256" s="89" t="s">
         <v>1224</v>
-      </c>
-      <c r="C256" s="89" t="s">
-        <v>1225</v>
       </c>
       <c r="G256" s="1"/>
       <c r="I256" s="82" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="N256" s="82" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="P256" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="R256" s="93" t="s">
+        <v>1278</v>
+      </c>
+      <c r="S256" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="R256" s="93" t="s">
-        <v>1279</v>
-      </c>
-      <c r="S256" s="2" t="s">
-        <v>1278</v>
-      </c>
       <c r="U256" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="V256" s="19"/>
       <c r="W256" s="96" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C257" s="93" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D257" s="84" t="s">
         <v>1226</v>
       </c>
-      <c r="C257" s="93" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D257" s="84" t="s">
-        <v>1227</v>
-      </c>
       <c r="F257" s="87" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H257" s="214" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K257" s="87" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L257" s="2"/>
       <c r="M257" s="86" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="U257" s="19"/>
       <c r="V257" s="19"/>
       <c r="W257" s="97" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C258" s="55" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D258" s="81" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F258" s="87" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H258" s="214" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="K258" s="87" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L258" s="2"/>
       <c r="M258" s="86" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V258" s="2"/>
     </row>
     <row r="259" spans="1:24" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D259" s="82" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F259" s="87" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H259" s="214" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I259" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="I259" s="2" t="s">
-        <v>1276</v>
-      </c>
       <c r="K259" s="87" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L259" s="2"/>
       <c r="M259" s="100" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C260" s="90" t="s">
         <v>1246</v>
       </c>
-      <c r="C260" s="90" t="s">
-        <v>1247</v>
-      </c>
       <c r="F260" s="87" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H260" s="86" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V260" s="2"/>
     </row>
@@ -39095,13 +39095,13 @@
       <c r="C261" s="93"/>
       <c r="D261" s="8"/>
       <c r="F261" s="88" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H261" s="86" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I261" s="81" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M261" s="86"/>
       <c r="V261" s="2"/>
@@ -39109,7 +39109,7 @@
     <row r="262" spans="1:24" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D262" s="8"/>
       <c r="I262" s="82" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M262" s="86"/>
       <c r="V262" s="2"/>
@@ -39117,13 +39117,13 @@
     <row r="263" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="D263" s="8"/>
       <c r="F263" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H263" s="90" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M263" s="86"/>
       <c r="V263" s="2"/>
@@ -39131,13 +39131,13 @@
     <row r="264" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="D264" s="8"/>
       <c r="F264" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H264" s="90" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I264" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>1252</v>
       </c>
       <c r="M264" s="86"/>
       <c r="V264" s="2"/>
@@ -39174,18 +39174,18 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A269" s="92" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F269" s="85" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G269" s="78"/>
       <c r="H269" s="2"/>
@@ -39193,269 +39193,269 @@
         <v>61</v>
       </c>
       <c r="L269" s="103" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="M269" s="103" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="P269" s="3" t="s">
         <v>1</v>
       </c>
       <c r="U269" s="102" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C270" s="100" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F270" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="C270" s="100" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>1314</v>
-      </c>
       <c r="H270" s="101" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="P270" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Q270" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="Q270" s="2" t="s">
+      <c r="R270" s="99" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S270" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="R270" s="99" t="s">
-        <v>1305</v>
-      </c>
-      <c r="S270" s="2" t="s">
-        <v>1304</v>
-      </c>
       <c r="U270" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V270" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C271" s="20" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H271" s="101" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="U271" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V271" s="100" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W271" s="81" t="s">
+        <v>1346</v>
+      </c>
+      <c r="X271" s="81" t="s">
         <v>1347</v>
-      </c>
-      <c r="X271" s="81" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C272" s="105" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D272" s="84" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H272" s="101" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="V272" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="W272" s="82" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="X272" s="82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>1312</v>
-      </c>
       <c r="C273" s="105" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H273" s="101" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="U273" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="V273" s="100" t="s">
         <v>1353</v>
       </c>
-      <c r="V273" s="100" t="s">
-        <v>1354</v>
-      </c>
       <c r="W273" s="84" t="s">
+        <v>1350</v>
+      </c>
+      <c r="X273" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="X273" s="2" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B274" s="105" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C274" s="106" t="s">
         <v>1405</v>
       </c>
-      <c r="C274" s="106" t="s">
-        <v>1406</v>
-      </c>
       <c r="D274" s="81" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H274" s="101" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C275" s="107" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D275" s="82" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="101" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F276" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="101" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F277" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="101" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F278" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="101" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F279" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="101" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F280" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="101" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
@@ -39539,7 +39539,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -39613,7 +39613,7 @@
         <v>493</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F6" s="137" t="s">
         <v>519</v>
@@ -39622,7 +39622,7 @@
         <v>529</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I6" s="138"/>
       <c r="K6" s="2" t="s">
@@ -39646,7 +39646,7 @@
         <v>481</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="X6" s="2"/>
     </row>
@@ -39692,7 +39692,7 @@
         <v>488</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F8" s="139" t="s">
         <v>510</v>
@@ -39726,7 +39726,7 @@
         <v>489</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F9" s="139" t="s">
         <v>505</v>
@@ -39815,10 +39815,10 @@
         <v>645</v>
       </c>
       <c r="H12" s="141" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I12" s="142" t="s">
         <v>1420</v>
-      </c>
-      <c r="I12" s="142" t="s">
-        <v>1421</v>
       </c>
       <c r="L12" s="2"/>
       <c r="P12" s="1" t="s">
@@ -39840,10 +39840,10 @@
         <v>516</v>
       </c>
       <c r="H13" s="129" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I13" s="130" t="s">
         <v>1418</v>
-      </c>
-      <c r="I13" s="130" t="s">
-        <v>1419</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>548</v>
@@ -39864,10 +39864,10 @@
         <v>518</v>
       </c>
       <c r="H14" s="111" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I14" s="132" t="s">
         <v>1422</v>
-      </c>
-      <c r="I14" s="132" t="s">
-        <v>1423</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -39900,10 +39900,10 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="111" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1425</v>
       </c>
       <c r="M16" s="2"/>
       <c r="P16" s="1"/>
@@ -39960,11 +39960,11 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F20" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="112" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="M20" s="12"/>
       <c r="U20" s="1"/>
@@ -39996,7 +39996,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="12"/>
@@ -40064,14 +40064,14 @@
     </row>
     <row r="26" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A26" s="144" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B26" s="128"/>
       <c r="C26" s="143" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F26" s="127" t="s">
         <v>191</v>
@@ -40084,13 +40084,13 @@
       </c>
       <c r="I26" s="138"/>
       <c r="K26" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M26" s="126" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>1488</v>
-      </c>
-      <c r="M26" s="126" t="s">
-        <v>1490</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>1489</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="36"/>
@@ -40098,13 +40098,13 @@
     <row r="27" spans="1:24" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="133"/>
       <c r="B27" s="134" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C27" s="145" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D27" s="142" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F27" s="131" t="s">
         <v>193</v>
@@ -40122,13 +40122,13 @@
     </row>
     <row r="28" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A28" s="144" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B28" s="128" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D28" s="138"/>
       <c r="F28" s="131" t="s">
@@ -40149,10 +40149,10 @@
       <c r="A29" s="131"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D29" s="140" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F29" s="131" t="s">
         <v>199</v>
@@ -40171,7 +40171,7 @@
       <c r="A30" s="133"/>
       <c r="B30" s="134"/>
       <c r="C30" s="145" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D30" s="136"/>
       <c r="F30" s="131" t="s">
@@ -40198,7 +40198,7 @@
         <v>196</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F31" s="131" t="s">
         <v>221</v>
@@ -40210,7 +40210,7 @@
         <v>223</v>
       </c>
       <c r="I31" s="132" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="14"/>
@@ -40244,7 +40244,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="126" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D33" s="140"/>
       <c r="F33" s="133" t="s">
@@ -40266,7 +40266,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D34" s="140"/>
       <c r="F34" s="155" t="s">
@@ -40276,7 +40276,7 @@
         <v>417</v>
       </c>
       <c r="H34" s="157" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I34" s="138"/>
       <c r="L34" s="2"/>
@@ -40349,12 +40349,12 @@
     </row>
     <row r="38" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" s="144" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B38" s="128"/>
       <c r="C38" s="146"/>
       <c r="D38" s="138" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F38" s="151" t="s">
         <v>431</v>
@@ -40375,7 +40375,7 @@
         <v>412</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D39" s="140"/>
       <c r="F39" s="151" t="s">
@@ -40605,7 +40605,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F51" s="144" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G51" s="128"/>
       <c r="H51" s="149"/>
@@ -40750,13 +40750,13 @@
         <v>104</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>145</v>
       </c>
       <c r="I61" s="132" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="L61" s="12"/>
       <c r="S61" s="2"/>
@@ -40832,14 +40832,14 @@
     </row>
     <row r="67" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A67" s="163" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B67" s="128"/>
       <c r="C67" s="164" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F67" s="137" t="s">
         <v>391</v>
@@ -40859,7 +40859,7 @@
         <v>272</v>
       </c>
       <c r="N67" s="130" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
@@ -40867,13 +40867,13 @@
     </row>
     <row r="68" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="131" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C68" s="162" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D68" s="140"/>
       <c r="F68" s="139" t="s">
@@ -40887,10 +40887,10 @@
         <v>393</v>
       </c>
       <c r="K68" s="131" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M68" s="55" t="s">
         <v>1521</v>
-      </c>
-      <c r="M68" s="55" t="s">
-        <v>1522</v>
       </c>
       <c r="N68" s="140"/>
       <c r="Q68" s="29"/>
@@ -40901,10 +40901,10 @@
     </row>
     <row r="69" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="131" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C69" s="162" t="s">
         <v>1505</v>
-      </c>
-      <c r="C69" s="162" t="s">
-        <v>1506</v>
       </c>
       <c r="D69" s="140"/>
       <c r="F69" s="152" t="s">
@@ -40933,13 +40933,13 @@
     </row>
     <row r="70" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A70" s="139" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C70" s="162" t="s">
         <v>1509</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C70" s="162" t="s">
-        <v>1510</v>
       </c>
       <c r="D70" s="140"/>
       <c r="K70" s="131" t="s">
@@ -40959,18 +40959,18 @@
     </row>
     <row r="71" spans="1:22" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="152" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B71" s="134"/>
       <c r="C71" s="165" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D71" s="136"/>
       <c r="K71" s="131" t="s">
         <v>275</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>276</v>
@@ -40983,13 +40983,13 @@
     </row>
     <row r="72" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C72" s="162" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="K72" s="133" t="s">
         <v>394</v>
@@ -41006,10 +41006,10 @@
     </row>
     <row r="73" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C73" s="162" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="2"/>
@@ -41110,16 +41110,16 @@
     </row>
     <row r="79" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C79" s="162" t="s">
         <v>1524</v>
       </c>
-      <c r="C79" s="162" t="s">
+      <c r="D79" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>1526</v>
-      </c>
       <c r="F79" s="137" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G79" s="149"/>
       <c r="H79" s="128" t="s">
@@ -41133,13 +41133,13 @@
     </row>
     <row r="80" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C80" s="168" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>1538</v>
-      </c>
-      <c r="C80" s="168" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1539</v>
       </c>
       <c r="F80" s="139" t="s">
         <v>354</v>
@@ -41161,13 +41161,13 @@
     </row>
     <row r="81" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C81" s="168" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F81" s="139" t="s">
         <v>359</v>
@@ -41202,13 +41202,13 @@
     </row>
     <row r="83" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F83" s="131" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H83" s="215" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I83" s="140"/>
       <c r="L83" s="12"/>
@@ -41218,20 +41218,20 @@
     </row>
     <row r="84" spans="1:26" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F84" s="131" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I84" s="140"/>
     </row>
     <row r="85" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="F85" s="131"/>
       <c r="G85" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I85" s="140"/>
       <c r="P85" s="1"/>
@@ -41239,7 +41239,7 @@
     <row r="86" spans="1:26" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F86" s="131"/>
       <c r="G86" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="140"/>
@@ -41250,11 +41250,11 @@
     </row>
     <row r="87" spans="1:26" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F87" s="133" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G87" s="147"/>
       <c r="H87" s="165" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I87" s="136"/>
       <c r="Q87" s="1"/>
@@ -41298,7 +41298,7 @@
         <v>282</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="P90" s="1"/>
       <c r="U90" s="1"/>
@@ -41309,10 +41309,10 @@
         <v>61</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C91" s="169" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2</v>
@@ -41332,11 +41332,11 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="122" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D92" s="2"/>
       <c r="F92" s="42"/>
@@ -41349,7 +41349,7 @@
     </row>
     <row r="93" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="2"/>
@@ -41362,13 +41362,13 @@
     </row>
     <row r="94" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="172" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B94" s="174" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C94" s="170" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D94" s="130"/>
       <c r="F94" s="42"/>
@@ -41384,13 +41384,13 @@
     <row r="95" spans="1:26" ht="203" x14ac:dyDescent="0.35">
       <c r="A95" s="139"/>
       <c r="B95" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C95" s="168" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D95" s="132" t="s">
         <v>1547</v>
-      </c>
-      <c r="D95" s="132" t="s">
-        <v>1548</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
@@ -41404,11 +41404,11 @@
     </row>
     <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="173" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B96" s="134"/>
       <c r="C96" s="171" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D96" s="142"/>
       <c r="F96" s="42"/>
@@ -41423,13 +41423,13 @@
     </row>
     <row r="97" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="172" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B97" s="174" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C97" s="170" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D97" s="130"/>
       <c r="F97" s="42"/>
@@ -41444,13 +41444,13 @@
     </row>
     <row r="98" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="172" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B98" s="174" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C98" s="170" t="s">
         <v>1558</v>
-      </c>
-      <c r="B98" s="174" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C98" s="170" t="s">
-        <v>1559</v>
       </c>
       <c r="D98" s="130"/>
       <c r="F98" s="42"/>
@@ -41465,13 +41465,13 @@
     </row>
     <row r="99" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A99" s="139" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D99" s="132" t="s">
         <v>1589</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D99" s="132" t="s">
-        <v>1590</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
@@ -41484,16 +41484,16 @@
     </row>
     <row r="100" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="139" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C100" s="168" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D100" s="132" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
@@ -41506,13 +41506,13 @@
     </row>
     <row r="101" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="175" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C101" s="168" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D101" s="132"/>
       <c r="F101" s="42"/>
@@ -41526,16 +41526,16 @@
     </row>
     <row r="102" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="173" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B102" s="180" t="s">
         <v>1594</v>
       </c>
-      <c r="B102" s="180" t="s">
-        <v>1595</v>
-      </c>
       <c r="C102" s="171" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D102" s="142" t="s">
         <v>1592</v>
-      </c>
-      <c r="D102" s="142" t="s">
-        <v>1593</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -41548,13 +41548,13 @@
     </row>
     <row r="103" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A103" s="172" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B103" s="174" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C103" s="128" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D103" s="130"/>
       <c r="F103" s="42"/>
@@ -41569,14 +41569,14 @@
     </row>
     <row r="104" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="181" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B104" s="176"/>
       <c r="C104" s="177" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D104" s="182" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F104" s="42"/>
       <c r="H104" s="14"/>
@@ -41589,13 +41589,13 @@
     </row>
     <row r="105" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="181" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B105" s="189" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C105" s="177" t="s">
         <v>1597</v>
-      </c>
-      <c r="B105" s="189" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C105" s="177" t="s">
-        <v>1598</v>
       </c>
       <c r="D105" s="182"/>
       <c r="F105" s="42"/>
@@ -41609,13 +41609,13 @@
     </row>
     <row r="106" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="181" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B106" s="189" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C106" s="177" t="s">
         <v>1600</v>
-      </c>
-      <c r="C106" s="177" t="s">
-        <v>1601</v>
       </c>
       <c r="D106" s="182"/>
       <c r="F106" s="42"/>
@@ -41629,16 +41629,16 @@
     </row>
     <row r="107" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A107" s="183" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B107" s="179" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C107" s="178" t="s">
         <v>1567</v>
       </c>
-      <c r="B107" s="179" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C107" s="178" t="s">
-        <v>1568</v>
-      </c>
       <c r="D107" s="184" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F107" s="42"/>
       <c r="H107" s="14"/>
@@ -41651,16 +41651,16 @@
     </row>
     <row r="108" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A108" s="187" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B108" s="179" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C108" s="178" t="s">
         <v>1571</v>
       </c>
-      <c r="B108" s="179" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C108" s="178" t="s">
+      <c r="D108" s="184" t="s">
         <v>1572</v>
-      </c>
-      <c r="D108" s="184" t="s">
-        <v>1573</v>
       </c>
       <c r="F108" s="42"/>
       <c r="H108" s="14"/>
@@ -41673,16 +41673,16 @@
     </row>
     <row r="109" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A109" s="187" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B109" s="185" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C109" s="186" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D109" s="184" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F109" s="42"/>
       <c r="H109" s="14"/>
@@ -41695,16 +41695,16 @@
     </row>
     <row r="110" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="173" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B110" s="188" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C110" s="134" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D110" s="142" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F110" s="42"/>
       <c r="H110" s="14"/>
@@ -41776,7 +41776,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="240" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B115" s="149"/>
       <c r="C115" s="149"/>
@@ -41785,25 +41785,25 @@
     </row>
     <row r="116" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A116" s="192" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C116" s="205" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D116" s="132" t="s">
         <v>1605</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C116" s="205" t="s">
+      <c r="F116" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="D116" s="132" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="H116" s="191" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>1608</v>
-      </c>
-      <c r="H116" s="191" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>1609</v>
       </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -41813,19 +41813,19 @@
     </row>
     <row r="117" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="193" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C117" s="190"/>
       <c r="D117" s="132"/>
       <c r="F117" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="191" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>1612</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>1613</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -41835,22 +41835,22 @@
     </row>
     <row r="118" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="194" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="23" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D118" s="132"/>
       <c r="F118" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="191" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -41860,11 +41860,11 @@
     </row>
     <row r="119" spans="1:23" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="194" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B119" s="108"/>
       <c r="C119" s="195" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D119" s="132"/>
       <c r="G119" s="1"/>
@@ -41878,7 +41878,7 @@
     </row>
     <row r="120" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A120" s="194" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B120" s="108"/>
       <c r="C120" s="26" t="s">
@@ -41886,11 +41886,11 @@
       </c>
       <c r="D120" s="140"/>
       <c r="F120" s="204" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G120" s="149"/>
       <c r="H120" s="218" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I120" s="138"/>
       <c r="K120" s="2"/>
@@ -41902,10 +41902,10 @@
     </row>
     <row r="121" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="194" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B121" s="108" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C121" s="196" t="s">
         <v>305</v>
@@ -41915,13 +41915,13 @@
         <v>62</v>
       </c>
       <c r="G121" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H121" s="217" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I121" s="140" t="s">
         <v>1765</v>
-      </c>
-      <c r="H121" s="217" t="s">
-        <v>1759</v>
-      </c>
-      <c r="I121" s="140" t="s">
-        <v>1766</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -41932,24 +41932,24 @@
     </row>
     <row r="122" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="197" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B122" s="195" t="s">
         <v>1621</v>
-      </c>
-      <c r="B122" s="195" t="s">
-        <v>1622</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="140"/>
       <c r="F122" s="139" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I122" s="132" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="L122" s="12"/>
       <c r="S122" s="2"/>
@@ -41960,17 +41960,17 @@
       <c r="A123" s="152"/>
       <c r="B123" s="134"/>
       <c r="C123" s="134" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D123" s="142"/>
       <c r="F123" s="139" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G123" s="211" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H123" s="217" t="s">
         <v>1761</v>
-      </c>
-      <c r="G123" s="211" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H123" s="217" t="s">
-        <v>1762</v>
       </c>
       <c r="I123" s="140"/>
       <c r="L123" s="12"/>
@@ -41982,199 +41982,199 @@
     </row>
     <row r="124" spans="1:23" ht="116" x14ac:dyDescent="0.35">
       <c r="A124" s="204" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B124" s="128" t="s">
         <v>1633</v>
-      </c>
-      <c r="B124" s="128" t="s">
-        <v>1634</v>
       </c>
       <c r="C124" s="128"/>
       <c r="D124" s="130" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F124" s="223" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G124" s="211" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H124" s="217" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I124" s="224" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="139" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D125" s="132"/>
       <c r="F125" s="219" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H125" s="217" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="I125" s="224" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="139" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>1626</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>1627</v>
       </c>
       <c r="D126" s="132"/>
       <c r="F126" s="139" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G126" s="211" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H126" s="217" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="I126" s="140"/>
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:23" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="152" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B127" s="134" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C127" s="134" t="s">
         <v>1630</v>
-      </c>
-      <c r="C127" s="134" t="s">
-        <v>1631</v>
       </c>
       <c r="D127" s="142"/>
       <c r="F127" s="139" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G127" s="211" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H127" s="217" t="s">
         <v>1777</v>
       </c>
-      <c r="G127" s="211" t="s">
-        <v>1785</v>
-      </c>
-      <c r="H127" s="217" t="s">
-        <v>1778</v>
-      </c>
       <c r="I127" s="132" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="241" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B128" s="242"/>
       <c r="C128" s="242"/>
       <c r="D128" s="243" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="F128" s="152" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G128" s="227" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H128" s="225" t="s">
         <v>1783</v>
       </c>
-      <c r="G128" s="227" t="s">
-        <v>1786</v>
-      </c>
-      <c r="H128" s="225" t="s">
-        <v>1784</v>
-      </c>
       <c r="I128" s="226" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="L128" s="12"/>
     </row>
     <row r="129" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="244" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B129" s="245"/>
       <c r="C129" s="245" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D129" s="246"/>
       <c r="F129" s="204" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G129" s="247"/>
       <c r="H129" s="248" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="I129" s="130" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="L129" s="12"/>
     </row>
     <row r="130" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A130" s="244" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B130" s="245"/>
       <c r="C130" s="245" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D130" s="246"/>
       <c r="F130" s="249"/>
       <c r="G130" s="55" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H130" s="217" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I130" s="132" t="s">
         <v>1791</v>
-      </c>
-      <c r="I130" s="132" t="s">
-        <v>1792</v>
       </c>
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="228" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B131" s="206" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C131" s="207" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D131" s="229"/>
       <c r="F131" s="139" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G131" s="55" t="s">
         <v>1795</v>
       </c>
-      <c r="G131" s="55" t="s">
-        <v>1796</v>
-      </c>
       <c r="H131" s="217" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="I131" s="132"/>
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="230" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C132" s="205" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D132" s="132"/>
       <c r="F132" s="152"/>
       <c r="G132" s="134"/>
       <c r="H132" s="225" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="I132" s="142"/>
       <c r="L132" s="12"/>
@@ -42182,7 +42182,7 @@
     <row r="133" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="131"/>
       <c r="C133" s="205" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D133" s="140"/>
       <c r="F133" s="2"/>
@@ -42193,16 +42193,16 @@
     </row>
     <row r="134" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="139" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B134" s="211" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="B134" s="211" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>1648</v>
-      </c>
       <c r="D134" s="132" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="1"/>
@@ -42211,77 +42211,77 @@
     </row>
     <row r="135" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="231" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B135" s="208" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C135" s="209" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D135" s="182" t="s">
         <v>1649</v>
-      </c>
-      <c r="C135" s="209" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D135" s="182" t="s">
-        <v>1650</v>
       </c>
       <c r="G135" s="1"/>
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A136" s="232" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B136" s="212" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C136" s="210" t="s">
         <v>1652</v>
       </c>
-      <c r="B136" s="212" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C136" s="210" t="s">
-        <v>1653</v>
-      </c>
       <c r="D136" s="233" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G136" s="1"/>
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="234" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D137" s="235" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G137" s="1"/>
       <c r="L137" s="12"/>
     </row>
     <row r="138" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="236" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D138" s="235" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G138" s="1"/>
       <c r="L138" s="12"/>
     </row>
     <row r="139" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="139" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D139" s="140"/>
       <c r="G139" s="1"/>
@@ -42289,80 +42289,80 @@
     </row>
     <row r="140" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A140" s="237" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B140" s="213" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C140" s="176" t="s">
         <v>1666</v>
       </c>
-      <c r="B140" s="213" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C140" s="176" t="s">
-        <v>1667</v>
-      </c>
       <c r="D140" s="182" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G140" s="1"/>
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="238" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B141" s="220" t="s">
         <v>1663</v>
       </c>
-      <c r="B141" s="220" t="s">
+      <c r="C141" s="206" t="s">
         <v>1664</v>
       </c>
-      <c r="C141" s="206" t="s">
-        <v>1665</v>
-      </c>
       <c r="D141" s="239" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G141" s="1"/>
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12" ht="174" x14ac:dyDescent="0.35">
       <c r="A142" s="137" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B142" s="128" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C142" s="218" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D142" s="130" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G142" s="1"/>
       <c r="L142" s="12"/>
     </row>
     <row r="143" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A143" s="139" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C143" s="221" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D143" s="132" t="s">
         <v>1682</v>
-      </c>
-      <c r="C143" s="221" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D143" s="132" t="s">
-        <v>1683</v>
       </c>
       <c r="G143" s="1"/>
       <c r="L143" s="12"/>
     </row>
     <row r="144" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A144" s="139" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D144" s="132" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="1"/>
@@ -42371,16 +42371,16 @@
     </row>
     <row r="145" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="152" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B145" s="147" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C145" s="222" t="s">
         <v>1696</v>
       </c>
-      <c r="B145" s="147" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C145" s="222" t="s">
+      <c r="D145" s="136" t="s">
         <v>1697</v>
-      </c>
-      <c r="D145" s="136" t="s">
-        <v>1698</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="1"/>
@@ -42472,7 +42472,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="P154" s="1"/>
       <c r="U154" s="1"/>
@@ -42500,13 +42500,13 @@
     </row>
     <row r="156" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>1701</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1702</v>
       </c>
       <c r="D156" s="2"/>
       <c r="F156"/>
@@ -42516,13 +42516,13 @@
     <row r="157" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>1705</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>1706</v>
       </c>
       <c r="F157"/>
       <c r="G157" s="1"/>
@@ -42530,13 +42530,13 @@
     </row>
     <row r="158" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>1709</v>
-      </c>
       <c r="C158" s="216" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D158" s="2"/>
       <c r="F158"/>
@@ -42545,13 +42545,13 @@
     </row>
     <row r="159" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="137" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B159" s="128" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C159" s="218" t="s">
         <v>1712</v>
-      </c>
-      <c r="B159" s="128" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C159" s="218" t="s">
-        <v>1713</v>
       </c>
       <c r="D159" s="130"/>
       <c r="F159"/>
@@ -42560,10 +42560,10 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160" s="139" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D160" s="132"/>
       <c r="F160"/>
@@ -42572,10 +42572,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="139" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D161" s="132"/>
       <c r="F161"/>
@@ -42584,10 +42584,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="139" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D162" s="132"/>
       <c r="F162"/>
@@ -42596,13 +42596,13 @@
     </row>
     <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="139" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="132" t="s">
         <v>1720</v>
-      </c>
-      <c r="D163" s="132" t="s">
-        <v>1721</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="1"/>
@@ -42610,13 +42610,13 @@
     </row>
     <row r="164" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A164" s="139" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B164" s="217" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C164" s="259" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D164" s="132"/>
       <c r="F164"/>
@@ -42625,10 +42625,10 @@
     </row>
     <row r="165" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A165" s="139" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C165" s="259" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D165" s="132"/>
       <c r="F165"/>
@@ -42637,14 +42637,14 @@
     </row>
     <row r="166" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="152" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B166" s="134"/>
       <c r="C166" s="260" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D166" s="142" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="1"/>
@@ -42652,11 +42652,11 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="137" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B167" s="128"/>
       <c r="C167" s="128" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D167" s="130"/>
       <c r="F167"/>
@@ -42665,16 +42665,16 @@
     </row>
     <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="139" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B168" s="217" t="s">
         <v>1729</v>
       </c>
-      <c r="B168" s="217" t="s">
+      <c r="C168" s="217" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D168" s="132" t="s">
         <v>1730</v>
-      </c>
-      <c r="C168" s="217" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D168" s="132" t="s">
-        <v>1731</v>
       </c>
       <c r="F168"/>
       <c r="G168" s="1"/>
@@ -42682,10 +42682,10 @@
     </row>
     <row r="169" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A169" s="219" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C169" s="217" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D169" s="132"/>
       <c r="F169"/>
@@ -42694,13 +42694,13 @@
     </row>
     <row r="170" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A170" s="139" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B170" s="217" t="s">
         <v>1732</v>
       </c>
-      <c r="B170" s="217" t="s">
-        <v>1733</v>
-      </c>
       <c r="C170" s="217" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D170" s="132"/>
       <c r="F170"/>
@@ -42709,10 +42709,10 @@
     </row>
     <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="139" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D171" s="132"/>
       <c r="F171"/>
@@ -42721,11 +42721,11 @@
     </row>
     <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="139" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D172" s="132"/>
       <c r="F172"/>
@@ -42734,10 +42734,10 @@
     </row>
     <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="139" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C173" s="217" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D173" s="132"/>
       <c r="F173"/>
@@ -42746,10 +42746,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="139" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D174" s="132"/>
       <c r="F174"/>
@@ -42758,10 +42758,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="139" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D175" s="132"/>
       <c r="F175"/>
@@ -42770,10 +42770,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="139" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D176" s="132"/>
       <c r="F176"/>
@@ -42782,10 +42782,10 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="139" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>1747</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>1748</v>
       </c>
       <c r="D177" s="132"/>
       <c r="F177"/>
@@ -42794,14 +42794,14 @@
     </row>
     <row r="178" spans="1:23" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="152" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B178" s="134"/>
       <c r="C178" s="134" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D178" s="142" t="s">
         <v>1753</v>
-      </c>
-      <c r="D178" s="142" t="s">
-        <v>1754</v>
       </c>
       <c r="G178" s="1"/>
     </row>
@@ -42831,7 +42831,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="P181" s="1"/>
       <c r="U181" s="1"/>
@@ -42842,7 +42842,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="169" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F182" s="125" t="s">
         <v>61</v>
@@ -42862,13 +42862,13 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B183" s="257" t="s">
         <v>551</v>
       </c>
       <c r="C183" s="258" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D183" s="2"/>
       <c r="G183" s="1"/>
@@ -42879,10 +42879,10 @@
     </row>
     <row r="184" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D184" s="2"/>
       <c r="G184" s="1"/>
@@ -42891,39 +42891,39 @@
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="217" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1843</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>1844</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -42933,11 +42933,11 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="144" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B189" s="128"/>
       <c r="C189" s="248" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D189" s="130"/>
       <c r="F189" s="2"/>
@@ -42949,10 +42949,10 @@
     </row>
     <row r="190" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A190" s="250" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C190" s="217" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D190" s="132"/>
       <c r="F190" s="2"/>
@@ -42970,10 +42970,10 @@
     </row>
     <row r="191" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A191" s="139" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C191" s="217" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D191" s="132"/>
       <c r="F191" s="2"/>
@@ -42988,10 +42988,10 @@
     </row>
     <row r="192" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A192" s="139" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C192" s="217" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D192" s="132"/>
       <c r="F192" s="2"/>
@@ -43005,11 +43005,11 @@
     </row>
     <row r="193" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="251" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B193" s="134"/>
       <c r="C193" s="225" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D193" s="142"/>
       <c r="F193" s="2"/>
@@ -43023,11 +43023,11 @@
     </row>
     <row r="194" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A194" s="144" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B194" s="128"/>
       <c r="C194" s="128" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D194" s="130"/>
       <c r="F194" s="2"/>
@@ -43041,13 +43041,13 @@
     </row>
     <row r="195" spans="1:24" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="152" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B195" s="227" t="s">
         <v>1820</v>
       </c>
-      <c r="B195" s="227" t="s">
+      <c r="C195" s="134" t="s">
         <v>1821</v>
-      </c>
-      <c r="C195" s="134" t="s">
-        <v>1822</v>
       </c>
       <c r="D195" s="142"/>
       <c r="F195" s="2"/>
@@ -43061,11 +43061,11 @@
     </row>
     <row r="196" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A196" s="204" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B196" s="128"/>
       <c r="C196" s="128" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D196" s="130"/>
       <c r="K196" s="2"/>
@@ -43077,10 +43077,10 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A197" s="252" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D197" s="132"/>
       <c r="K197" s="2"/>
@@ -43091,10 +43091,10 @@
     </row>
     <row r="198" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="139" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1825</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>1826</v>
       </c>
       <c r="D198" s="132"/>
       <c r="K198" s="2"/>
@@ -43104,11 +43104,11 @@
     </row>
     <row r="199" spans="1:24" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="152" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B199" s="134"/>
       <c r="C199" s="134" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D199" s="142"/>
       <c r="K199" s="2"/>
@@ -43118,28 +43118,28 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A200" s="144" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B200" s="128"/>
       <c r="C200" s="128" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D200" s="130"/>
     </row>
     <row r="201" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A201" s="139"/>
       <c r="C201" s="217" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D201" s="132"/>
     </row>
     <row r="202" spans="1:24" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="152" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B202" s="134"/>
       <c r="C202" s="134" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D202" s="142"/>
     </row>
@@ -43147,32 +43147,32 @@
       <c r="A203" s="253"/>
       <c r="B203" s="254"/>
       <c r="C203" s="254" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D203" s="255"/>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204" s="19" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C205" s="256" t="s">
         <v>1839</v>
-      </c>
-      <c r="C205" s="256" t="s">
-        <v>1840</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1841</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>1842</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -44531,11 +44531,11 @@
       </c>
       <c r="C5" s="23"/>
       <c r="F5" s="198" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G5" s="199"/>
       <c r="H5" s="200" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I5" s="201"/>
       <c r="K5" s="23"/>
@@ -44561,10 +44561,10 @@
         <v>303</v>
       </c>
       <c r="F6" s="194" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H6" s="195" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I6" s="202"/>
       <c r="K6" s="23" t="s">
@@ -44594,7 +44594,7 @@
         <v>326</v>
       </c>
       <c r="F7" s="194" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>302</v>
@@ -44624,10 +44624,10 @@
         <v>325</v>
       </c>
       <c r="F8" s="194" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G8" s="108" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H8" s="196" t="s">
         <v>305</v>
@@ -44654,10 +44654,10 @@
         <v>289</v>
       </c>
       <c r="F9" s="197" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G9" s="195" t="s">
         <v>1621</v>
-      </c>
-      <c r="G9" s="195" t="s">
-        <v>1622</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="202"/>
@@ -44684,7 +44684,7 @@
       <c r="F10" s="152"/>
       <c r="G10" s="134"/>
       <c r="H10" s="134" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I10" s="203"/>
       <c r="K10" s="23" t="s">
@@ -44799,10 +44799,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D16" s="23"/>
       <c r="F16" s="23"/>
@@ -44819,10 +44819,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D17" s="23"/>
       <c r="F17" s="23"/>
@@ -44839,10 +44839,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D18" s="23"/>
       <c r="F18" s="23"/>
@@ -44859,10 +44859,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D19" s="23"/>
       <c r="F19" s="23"/>
@@ -44879,10 +44879,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D20" s="23"/>
       <c r="F20" s="23"/>
@@ -44899,10 +44899,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D21" s="23"/>
       <c r="F21" s="23"/>
@@ -44919,10 +44919,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D22" s="23"/>
       <c r="F22" s="23"/>
@@ -46043,7 +46043,7 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="67"/>
@@ -46053,40 +46053,40 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="115" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="108" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="108" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B6" s="108" t="s">
         <v>1437</v>
       </c>
-      <c r="B6" s="108" t="s">
-        <v>1438</v>
-      </c>
       <c r="C6" s="108" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="108" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B7" s="108" t="s">
         <v>1440</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="C7" s="108" t="s">
         <v>1441</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -46153,7 +46153,7 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="67"/>
@@ -46163,100 +46163,100 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="115" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="108" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="108" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B7" s="108" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C7" s="116" t="s">
         <v>1449</v>
-      </c>
-      <c r="C7" s="116" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A8" s="108" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B8" s="108" t="s">
         <v>1452</v>
       </c>
-      <c r="B8" s="108" t="s">
-        <v>1453</v>
-      </c>
       <c r="C8" s="108" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="108" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A10" s="108" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C10" s="108" t="s">
         <v>1459</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="377" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B11" s="108" t="s">
         <v>1461</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="C11" s="108" t="s">
         <v>1462</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="261" x14ac:dyDescent="0.35">
       <c r="A12" s="108" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>1464</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A13" s="108" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B13" s="108" t="s">
         <v>1466</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="C13" s="117" t="s">
         <v>1467</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>1468</v>
       </c>
     </row>
   </sheetData>

--- a/2 четверть_2_Программист_old_new_Python.xlsx
+++ b/2 четверть_2_Программист_old_new_Python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D971C-90FB-482E-9B26-B25A58D84A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C230DD-49B4-4FDF-8118-689D1C8D45D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Альбина 1-11" sheetId="1" r:id="rId1"/>
@@ -8576,70 +8576,6 @@
     <t>frozenset()</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>python style</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> в ключе num тоже может быть цикл
-nums_cube = {num: num ** 3 for num in range(1, 5 + 1)}
-#print(nums_cube)  # {1: 1, 2: 8, 3: 27, 4: 64, 5: 125}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ИЛИ {[num]:[num]**3 …</t>
-    </r>
-  </si>
-  <si>
     <t>Урок 6</t>
   </si>
   <si>
@@ -27300,9 +27236,6 @@
     <t>Для изучения</t>
   </si>
   <si>
-    <t>Для работы</t>
-  </si>
-  <si>
     <t>1 Python
    (нужен) python-telegram-bot (ссылка на репозиторий и демки)
 2 pip install python-telegram-bot (устанавливаем библиотеку</t>
@@ -30552,17 +30485,153 @@
 print(result)
 #['С', 'С']</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в ключе num тоже может быть цикл
+nums_cube = {num: num ** 3 for num in range(1, 5 + 1)}
+#print(nums_cube)  # {1: 1, 2: 8, 3: 27, 4: 64, 5: 125}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ИЛИ {[num]:[num]**3 …</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+my_dict_1 = {el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if el != 1 else 1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if el != 1 else 1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for el in range(100) }</t>
+    </r>
+  </si>
+  <si>
+    <t>Для работы
+https://core.telegram.org/bots/samples</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -31768,9 +31837,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -31793,49 +31862,49 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -31844,35 +31913,53 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -31880,91 +31967,73 @@
     <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -31973,41 +32042,41 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="66" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="67" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32016,43 +32085,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="81" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="82" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="86" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="87" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32061,91 +32130,91 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="82" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="81" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32154,7 +32223,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32172,7 +32241,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32190,73 +32259,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -32265,49 +32352,31 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="94" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="95" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32322,28 +32391,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="94" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="95" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32352,10 +32421,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32382,73 +32451,73 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32463,19 +32532,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="98" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="97" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="98" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32508,22 +32577,22 @@
     <xf numFmtId="49" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32535,22 +32604,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -33877,8 +33952,8 @@
   </sheetPr>
   <dimension ref="A1:Z280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E218" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+    <sheetView topLeftCell="T91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z92" sqref="Z92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34017,7 +34092,7 @@
         <v>35</v>
       </c>
       <c r="N6" s="105" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>80</v>
@@ -34053,7 +34128,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
@@ -34222,7 +34297,7 @@
         <v>42</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -34647,22 +34722,22 @@
         <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>145</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>122</v>
@@ -34682,10 +34757,10 @@
     </row>
     <row r="28" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>403</v>
@@ -34712,28 +34787,28 @@
     </row>
     <row r="29" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A29" s="108" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B29" s="108" t="s">
         <v>1412</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="C29" s="108" t="s">
         <v>1413</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="D29" s="108" t="s">
         <v>1414</v>
       </c>
-      <c r="D29" s="108" t="s">
-        <v>1415</v>
-      </c>
       <c r="F29" s="108" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H29" s="114" t="s">
         <v>1427</v>
       </c>
-      <c r="G29" s="108" t="s">
-        <v>1430</v>
-      </c>
-      <c r="H29" s="114" t="s">
+      <c r="I29" s="108" t="s">
         <v>1428</v>
-      </c>
-      <c r="I29" s="108" t="s">
-        <v>1429</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>125</v>
@@ -34930,7 +35005,7 @@
         <v>272</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>191</v>
@@ -34951,7 +35026,7 @@
         <v>175</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>62</v>
@@ -34990,7 +35065,7 @@
         <v>229</v>
       </c>
       <c r="L44" s="118" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>230</v>
@@ -35140,7 +35215,7 @@
         <v>223</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>216</v>
@@ -35193,7 +35268,7 @@
         <v>228</v>
       </c>
       <c r="V49" s="65" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
@@ -35397,7 +35472,7 @@
       </c>
       <c r="L61" s="12"/>
       <c r="P61" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q61" s="17"/>
       <c r="R61" s="17" t="s">
@@ -35410,7 +35485,7 @@
     <row r="62" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="L62" s="12"/>
       <c r="P62" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>334</v>
@@ -35429,7 +35504,7 @@
       <c r="G63" s="1"/>
       <c r="L63" s="12"/>
       <c r="P63" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="2" t="s">
@@ -35513,7 +35588,7 @@
       <c r="L68" s="12"/>
       <c r="M68" s="2"/>
       <c r="P68" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Q68" s="29"/>
       <c r="R68" s="30" t="s">
@@ -35533,10 +35608,10 @@
         <v>376</v>
       </c>
       <c r="R69" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S69" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="2"/>
@@ -35579,7 +35654,7 @@
       <c r="L73" s="12"/>
       <c r="M73" s="2"/>
       <c r="P73" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Q73" s="17"/>
       <c r="R73" s="38" t="s">
@@ -35612,7 +35687,7 @@
       <c r="L75" s="12"/>
       <c r="M75" s="2"/>
       <c r="P75" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="17" t="s">
@@ -35662,13 +35737,13 @@
       <c r="L78" s="12"/>
       <c r="M78" s="2"/>
       <c r="P78" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="R78" s="100" t="s">
         <v>1394</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="R78" s="100" t="s">
-        <v>1395</v>
       </c>
       <c r="S78" s="33"/>
       <c r="U78" s="34"/>
@@ -35678,7 +35753,7 @@
       <c r="L79" s="12"/>
       <c r="M79" s="2"/>
       <c r="P79" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q79" s="15"/>
       <c r="R79" s="17" t="s">
@@ -35699,7 +35774,7 @@
         <v>358</v>
       </c>
       <c r="S80" s="54" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="29" x14ac:dyDescent="0.35">
@@ -35726,7 +35801,7 @@
         <v>45</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="S82" s="2"/>
     </row>
@@ -35734,13 +35809,13 @@
       <c r="L83" s="12"/>
       <c r="M83" s="2"/>
       <c r="P83" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="R83" s="162" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S83" s="2"/>
     </row>
@@ -35748,13 +35823,13 @@
       <c r="L84" s="12"/>
       <c r="M84" s="2"/>
       <c r="P84" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>1527</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>1528</v>
       </c>
       <c r="S84" s="2"/>
     </row>
@@ -35873,7 +35948,7 @@
         <v>385</v>
       </c>
       <c r="U90" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V90" s="43" t="s">
         <v>390</v>
@@ -35961,7 +36036,7 @@
         <v>387</v>
       </c>
       <c r="V92" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>401</v>
@@ -35995,16 +36070,16 @@
       <c r="L93" s="12"/>
       <c r="O93" s="67"/>
       <c r="U93" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V93" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X93" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="Y93" s="45" t="s">
-        <v>464</v>
+      <c r="Y93" s="263" t="s">
+        <v>1848</v>
       </c>
       <c r="Z93" s="19" t="s">
         <v>409</v>
@@ -36016,7 +36091,7 @@
       </c>
       <c r="B94" s="42"/>
       <c r="C94" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D94" s="2"/>
       <c r="F94" s="42" t="s">
@@ -36031,16 +36106,16 @@
       <c r="L94" s="12"/>
       <c r="O94" s="67"/>
       <c r="U94" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V94" s="46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="X94" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y94" s="45" t="s">
         <v>467</v>
-      </c>
-      <c r="Y94" s="45" t="s">
-        <v>468</v>
       </c>
       <c r="Z94" s="19"/>
     </row>
@@ -36050,7 +36125,7 @@
       </c>
       <c r="B95" s="42"/>
       <c r="C95" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D95" s="2"/>
       <c r="F95" s="42" t="s">
@@ -36065,15 +36140,15 @@
       <c r="L95" s="12"/>
       <c r="O95" s="67"/>
       <c r="U95" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V95" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="D96" s="2"/>
-      <c r="F96" s="42" t="s">
+      <c r="F96" s="262" t="s">
         <v>433</v>
       </c>
       <c r="G96" s="42" t="s">
@@ -36090,10 +36165,10 @@
       <c r="N96" s="2"/>
       <c r="O96" s="67"/>
       <c r="U96" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="87" x14ac:dyDescent="0.35">
@@ -36125,7 +36200,7 @@
     <row r="98" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="C98" s="2"/>
       <c r="E98" s="68" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>443</v>
@@ -36392,7 +36467,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.35">
@@ -36451,62 +36526,62 @@
     </row>
     <row r="115" spans="1:23" ht="203" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H115" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S115" s="48"/>
       <c r="U115" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="V115" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="V115" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H116" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="67"/>
@@ -36514,41 +36589,41 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="P116" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R116" s="48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S116" s="48"/>
       <c r="U116" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="V116" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="V116" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C117" s="126" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H117" s="53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="67"/>
@@ -36556,40 +36631,40 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="P117" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R117" s="54" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S117" s="54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U117" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="V117" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="V117" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="203" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C118" s="126" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H118" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="67"/>
@@ -36597,101 +36672,101 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="P118" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R118" s="48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S118" s="48"/>
       <c r="U118" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V118" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="174" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="C119" s="48" t="s">
-        <v>499</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L119" s="12"/>
       <c r="P119" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="R119" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="R119" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="S119" s="2"/>
       <c r="U119" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="V119" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="V119" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="F120" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L120" s="12"/>
       <c r="P120" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="S120" s="54" t="s">
         <v>796</v>
-      </c>
-      <c r="S120" s="54" t="s">
-        <v>797</v>
       </c>
       <c r="U120" s="1"/>
       <c r="W120" s="2"/>
     </row>
     <row r="121" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="F121" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H121" s="111" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>1419</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>1420</v>
       </c>
       <c r="L121" s="12"/>
       <c r="P121" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S121" s="14"/>
       <c r="U121" s="1"/>
@@ -36699,67 +36774,67 @@
     </row>
     <row r="122" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F122" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="H122" s="111" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>1417</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>1418</v>
       </c>
       <c r="L122" s="12"/>
       <c r="P122" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S122" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U122" s="1"/>
       <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="F123" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="H123" s="111" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>1422</v>
       </c>
       <c r="L123" s="12"/>
       <c r="P123" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S123" s="54" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U123" s="1"/>
       <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F124" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="53" t="s">
         <v>647</v>
-      </c>
-      <c r="H124" s="53" t="s">
-        <v>648</v>
       </c>
       <c r="L124" s="12"/>
       <c r="P124" s="1"/>
@@ -36770,20 +36845,20 @@
     </row>
     <row r="125" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F125" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="111" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I125" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>1424</v>
       </c>
       <c r="L125" s="12"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S125" s="2"/>
       <c r="U125" s="1"/>
@@ -36791,23 +36866,23 @@
     </row>
     <row r="126" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F126" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="48" t="s">
         <v>525</v>
-      </c>
-      <c r="H126" s="48" t="s">
-        <v>526</v>
       </c>
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F127" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L127" s="12"/>
     </row>
@@ -36815,11 +36890,11 @@
       <c r="C128" s="49"/>
       <c r="D128" s="49"/>
       <c r="F128" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L128" s="12"/>
     </row>
@@ -36827,11 +36902,11 @@
       <c r="C129" s="49"/>
       <c r="D129" s="49"/>
       <c r="F129" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="112" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L129" s="12"/>
     </row>
@@ -36839,13 +36914,13 @@
       <c r="C130" s="49"/>
       <c r="D130" s="49"/>
       <c r="F130" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="50" t="s">
         <v>640</v>
-      </c>
-      <c r="H130" s="50" t="s">
-        <v>641</v>
       </c>
       <c r="L130" s="12"/>
     </row>
@@ -36853,13 +36928,13 @@
       <c r="C131" s="49"/>
       <c r="D131" s="49"/>
       <c r="F131" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G131" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="H131" s="52" t="s">
         <v>636</v>
-      </c>
-      <c r="H131" s="52" t="s">
-        <v>637</v>
       </c>
       <c r="L131" s="12"/>
     </row>
@@ -36867,13 +36942,13 @@
       <c r="C132" s="49"/>
       <c r="D132" s="49"/>
       <c r="F132" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L132" s="12"/>
     </row>
@@ -36881,13 +36956,13 @@
       <c r="C133" s="49"/>
       <c r="D133" s="49"/>
       <c r="F133" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L133" s="12"/>
     </row>
@@ -36895,11 +36970,11 @@
       <c r="C134" s="49"/>
       <c r="D134" s="49"/>
       <c r="F134" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L134" s="12"/>
     </row>
@@ -36907,11 +36982,11 @@
       <c r="C135" s="49"/>
       <c r="D135" s="49"/>
       <c r="F135" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L135" s="12"/>
     </row>
@@ -36919,11 +36994,11 @@
       <c r="C136" s="49"/>
       <c r="D136" s="49"/>
       <c r="F136" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L136" s="12"/>
     </row>
@@ -36931,11 +37006,11 @@
       <c r="C137" s="49"/>
       <c r="D137" s="49"/>
       <c r="F137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L137" s="12"/>
     </row>
@@ -36943,11 +37018,11 @@
       <c r="C138" s="49"/>
       <c r="D138" s="49"/>
       <c r="F138" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L138" s="12"/>
     </row>
@@ -36955,13 +37030,13 @@
       <c r="C139" s="49"/>
       <c r="D139" s="49"/>
       <c r="F139" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L139" s="12"/>
     </row>
@@ -36969,11 +37044,11 @@
       <c r="C140" s="49"/>
       <c r="D140" s="49"/>
       <c r="F140" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L140" s="12"/>
     </row>
@@ -36981,11 +37056,11 @@
       <c r="C141" s="49"/>
       <c r="D141" s="49"/>
       <c r="F141" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L141" s="12"/>
     </row>
@@ -36993,11 +37068,11 @@
       <c r="C142" s="49"/>
       <c r="D142" s="49"/>
       <c r="F142" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L142" s="12"/>
     </row>
@@ -37005,11 +37080,11 @@
       <c r="C143" s="49"/>
       <c r="D143" s="49"/>
       <c r="F143" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L143" s="12"/>
     </row>
@@ -37017,11 +37092,11 @@
       <c r="C144" s="49"/>
       <c r="D144" s="49"/>
       <c r="F144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L144" s="12"/>
     </row>
@@ -37029,11 +37104,11 @@
       <c r="C145" s="49"/>
       <c r="D145" s="49"/>
       <c r="F145" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L145" s="12"/>
     </row>
@@ -37041,11 +37116,11 @@
       <c r="C146" s="49"/>
       <c r="D146" s="49"/>
       <c r="F146" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L146" s="12"/>
     </row>
@@ -37053,280 +37128,280 @@
       <c r="C147" s="49"/>
       <c r="D147" s="49"/>
       <c r="F147" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="148" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C148" s="49"/>
       <c r="D148" s="49"/>
       <c r="F148" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C149" s="49"/>
       <c r="D149" s="49"/>
       <c r="F149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="150" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C150" s="49"/>
       <c r="D150" s="49"/>
       <c r="F150" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C151" s="49"/>
       <c r="D151" s="49"/>
       <c r="F151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C152" s="49"/>
       <c r="D152" s="49"/>
       <c r="F152" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C153" s="49"/>
       <c r="D153" s="49"/>
       <c r="F153" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C154" s="49"/>
       <c r="D154" s="49"/>
       <c r="F154" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C155" s="49"/>
       <c r="D155" s="49"/>
       <c r="F155" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="156" spans="3:12" ht="58" x14ac:dyDescent="0.35">
       <c r="C156" s="49"/>
       <c r="D156" s="49"/>
       <c r="F156" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C157" s="49"/>
       <c r="D157" s="49"/>
       <c r="F157" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C158" s="49"/>
       <c r="D158" s="49"/>
       <c r="F158" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C159" s="49"/>
       <c r="D159" s="49"/>
       <c r="F159" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C160" s="49"/>
       <c r="D160" s="49"/>
       <c r="F160" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="C161" s="49"/>
       <c r="D161" s="49"/>
       <c r="F161" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C162" s="49"/>
       <c r="D162" s="49"/>
       <c r="F162" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C163" s="49"/>
       <c r="D163" s="49"/>
       <c r="F163" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C164" s="49"/>
       <c r="D164" s="49"/>
       <c r="F164" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C165" s="49"/>
       <c r="D165" s="49"/>
       <c r="F165" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C166" s="49"/>
       <c r="D166" s="49"/>
       <c r="F166" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
       <c r="F167" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C168" s="49"/>
       <c r="D168" s="49"/>
       <c r="F168" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C169" s="49"/>
       <c r="D169" s="49"/>
       <c r="F169" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F170" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F171" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F172" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.35">
@@ -37354,7 +37429,7 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P175" s="1"/>
     </row>
@@ -37386,7 +37461,7 @@
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S177" s="2"/>
       <c r="U177" s="1"/>
@@ -37394,13 +37469,13 @@
     <row r="178" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="G178" s="1"/>
       <c r="P178" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q178" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="Q178" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="R178" s="261" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="S178" s="2"/>
       <c r="U178" s="1"/>
@@ -37430,7 +37505,7 @@
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.35">
@@ -37457,479 +37532,479 @@
     </row>
     <row r="183" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D183" s="54"/>
       <c r="F183" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H183" s="64" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M183" s="104" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="U183" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A184" s="74" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B184" s="19" t="s">
+        <v>793</v>
+      </c>
+      <c r="C184" s="75" t="s">
+        <v>928</v>
+      </c>
+      <c r="D184" s="74" t="s">
         <v>794</v>
       </c>
-      <c r="C184" s="75" t="s">
-        <v>929</v>
-      </c>
-      <c r="D184" s="74" t="s">
-        <v>795</v>
-      </c>
       <c r="F184" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="G184" s="2" t="s">
+      <c r="H184" s="64" t="s">
         <v>948</v>
       </c>
-      <c r="H184" s="64" t="s">
+      <c r="I184" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="J184" s="67"/>
       <c r="K184" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="L184" s="63" t="s">
+        <v>864</v>
+      </c>
+      <c r="M184" s="64" t="s">
+        <v>929</v>
+      </c>
+      <c r="N184" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="L184" s="63" t="s">
-        <v>865</v>
-      </c>
-      <c r="M184" s="64" t="s">
-        <v>930</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="P184" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q184" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="Q184" s="2" t="s">
+      <c r="R184" s="64" t="s">
         <v>974</v>
       </c>
-      <c r="R184" s="64" t="s">
+      <c r="S184" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="S184" s="2" t="s">
+      <c r="U184" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="U184" s="2" t="s">
-        <v>977</v>
-      </c>
       <c r="V184" s="98" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W184" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C185" s="64" t="s">
+        <v>927</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C185" s="64" t="s">
-        <v>928</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>875</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H185" s="64" t="s">
+        <v>955</v>
+      </c>
+      <c r="I185" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="J185" s="67"/>
       <c r="K185" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N185" s="2"/>
       <c r="P185" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R185" s="65" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="U185" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="V185" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="W185" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D186" s="2"/>
       <c r="F186" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G186" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="H186" s="64" t="s">
         <v>960</v>
       </c>
-      <c r="H186" s="64" t="s">
-        <v>961</v>
-      </c>
       <c r="I186" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J186" s="67"/>
       <c r="K186" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L186" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="M186" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="N186" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="M186" s="64" t="s">
-        <v>931</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>871</v>
-      </c>
       <c r="U186" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="V186" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="W186" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="261" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D187" s="2"/>
       <c r="F187" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G187" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="H187" s="64" t="s">
+        <v>964</v>
+      </c>
+      <c r="I187" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="H187" s="64" t="s">
-        <v>965</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="J187" s="67"/>
       <c r="K187" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M187" s="64" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="U187" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="W187" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="232" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B188" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="B188" s="19" t="s">
-        <v>879</v>
-      </c>
       <c r="C188" s="73" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D188" s="19"/>
       <c r="F188" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H188" s="64" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J188" s="67"/>
       <c r="K188" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L188" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="M188" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="N188" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="M188" s="64" t="s">
-        <v>933</v>
-      </c>
-      <c r="N188" s="2" t="s">
-        <v>895</v>
-      </c>
       <c r="U188" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V188" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F189" s="2"/>
       <c r="K189" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L189" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M189" s="64" t="s">
+        <v>917</v>
+      </c>
+      <c r="N189" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="M189" s="64" t="s">
-        <v>918</v>
-      </c>
-      <c r="N189" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="U189" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="V189" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="V189" s="2" t="s">
+      <c r="W189" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="X189" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="W189" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="X189" s="2" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B190" s="55" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D190" s="2"/>
       <c r="K190" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L190" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="M190" s="64" t="s">
+        <v>933</v>
+      </c>
+      <c r="N190" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="M190" s="64" t="s">
-        <v>934</v>
-      </c>
-      <c r="N190" s="2" t="s">
-        <v>899</v>
-      </c>
       <c r="W190" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="X190" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="64" t="s">
+        <v>915</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C191" s="64" t="s">
-        <v>916</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>912</v>
-      </c>
       <c r="K191" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L191" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="M191" s="64" t="s">
+        <v>934</v>
+      </c>
+      <c r="N191" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="M191" s="64" t="s">
-        <v>935</v>
-      </c>
-      <c r="N191" s="2" t="s">
-        <v>901</v>
-      </c>
       <c r="U191" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V191" s="98" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="64" t="s">
+        <v>925</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C192" s="64" t="s">
-        <v>926</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>915</v>
-      </c>
       <c r="K192" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L192" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="M192" s="64" t="s">
+        <v>918</v>
+      </c>
+      <c r="N192" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="M192" s="64" t="s">
-        <v>919</v>
-      </c>
-      <c r="N192" s="2" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="193" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B193" s="64" t="s">
         <v>920</v>
       </c>
-      <c r="B193" s="64" t="s">
+      <c r="C193" s="64" t="s">
+        <v>924</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C193" s="64" t="s">
-        <v>925</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>922</v>
-      </c>
       <c r="K193" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L193" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="M193" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="N193" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="M193" s="64" t="s">
-        <v>936</v>
-      </c>
-      <c r="N193" s="2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="194" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C194" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="C194" s="64" t="s">
-        <v>937</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="E194" s="69"/>
     </row>
     <row r="195" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="64" t="s">
         <v>939</v>
       </c>
-      <c r="C195" s="64" t="s">
+      <c r="D195" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="196" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="64" t="s">
         <v>943</v>
       </c>
-      <c r="C196" s="64" t="s">
+      <c r="D196" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="197" spans="1:22" ht="261" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B197" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="B197" s="19" t="s">
+      <c r="C197" s="73" t="s">
         <v>969</v>
       </c>
-      <c r="C197" s="73" t="s">
+      <c r="D197" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="D197" s="19" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.35">
@@ -37954,18 +38029,18 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>1001</v>
-      </c>
       <c r="D203" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>61</v>
@@ -37977,7 +38052,7 @@
         <v>61</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="U203" s="7" t="s">
         <v>34</v>
@@ -37986,440 +38061,440 @@
     </row>
     <row r="204" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="70" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D204" s="70" t="s">
         <v>1003</v>
       </c>
-      <c r="C204" s="70" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D204" s="70" t="s">
-        <v>1004</v>
-      </c>
       <c r="F204" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="H204" s="70" t="s">
         <v>1019</v>
       </c>
-      <c r="H204" s="70" t="s">
-        <v>1020</v>
-      </c>
       <c r="I204" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P204" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q204" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="Q204" s="2" t="s">
+      <c r="R204" s="90" t="s">
+        <v>1241</v>
+      </c>
+      <c r="S204" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="R204" s="90" t="s">
-        <v>1242</v>
-      </c>
-      <c r="S204" s="2" t="s">
-        <v>1112</v>
-      </c>
       <c r="U204" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="V204" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="V204" s="2" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="205" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="70" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C205" s="70" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>1007</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R205" s="76" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="U205" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="206" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>1009</v>
-      </c>
       <c r="C206" s="70" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>1013</v>
-      </c>
       <c r="F206" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="207" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="70" t="s">
         <v>1015</v>
       </c>
-      <c r="C207" s="70" t="s">
+      <c r="D207" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>1017</v>
-      </c>
       <c r="F207" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>1024</v>
-      </c>
       <c r="K207" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N207" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="M207" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="N207" s="2" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="208" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="70" t="s">
         <v>1081</v>
       </c>
-      <c r="C208" s="70" t="s">
+      <c r="D208" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>1083</v>
-      </c>
       <c r="F208" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G208" s="19"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="N208" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="U208" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="V208" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="V208" s="2" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="232" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="70" t="s">
         <v>1085</v>
       </c>
-      <c r="C209" s="70" t="s">
+      <c r="D209" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>1087</v>
-      </c>
       <c r="F209" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="U209" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V209" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="V209" s="2" t="s">
+      <c r="W209" s="2" t="s">
         <v>1096</v>
-      </c>
-      <c r="W209" s="2" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="70" t="s">
         <v>1089</v>
       </c>
-      <c r="C210" s="70" t="s">
+      <c r="D210" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>1091</v>
-      </c>
       <c r="F210" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="U210" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V210" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F211" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="U211" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="V211" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="V211" s="2" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F212" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="116" x14ac:dyDescent="0.35">
       <c r="F213" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="F214" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="215" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F215" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="216" spans="1:23" ht="116" x14ac:dyDescent="0.35">
       <c r="F216" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="217" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F217" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H217" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I217" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="218" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F218" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="219" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F219" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F220" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H220" s="70" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="221" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F221" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="H221" s="70" t="s">
         <v>1061</v>
-      </c>
-      <c r="H221" s="70" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="222" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="F222" s="71" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H222" s="70" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="223" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="F223" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="224" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F224" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="72" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="225" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F225" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="226" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F226" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H226" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I226" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F227" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H227" s="2"/>
     </row>
     <row r="228" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="F228" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.35">
@@ -38447,7 +38522,7 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="232" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -38472,225 +38547,225 @@
     </row>
     <row r="233" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F233" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H233" s="77" t="s">
         <v>1129</v>
       </c>
-      <c r="G233" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H233" s="77" t="s">
+      <c r="I233" s="81" t="s">
         <v>1130</v>
-      </c>
-      <c r="I233" s="81" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2"/>
       <c r="C234" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F234" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="G234" s="2" t="s">
-        <v>1134</v>
-      </c>
       <c r="H234" s="77" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I234" s="82" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F235" s="80" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H235" s="77" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I235" s="81" t="s">
         <v>1135</v>
-      </c>
-      <c r="H235" s="77" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I235" s="81" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="236" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A236" s="77" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F236" s="79" t="s">
         <v>1137</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F236" s="79" t="s">
-        <v>1138</v>
-      </c>
       <c r="G236" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H236" s="83" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I236" s="81" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1147</v>
-      </c>
       <c r="D237" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="82" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="238" spans="1:21" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2"/>
       <c r="C238" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I238" s="84" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C239" s="77" t="s">
         <v>1151</v>
       </c>
-      <c r="C239" s="77" t="s">
+      <c r="D239" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>1153</v>
-      </c>
       <c r="F239" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H239" s="77" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I239" s="81" t="s">
         <v>1162</v>
-      </c>
-      <c r="I239" s="81" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="240" spans="1:21" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2"/>
       <c r="C240" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>1155</v>
-      </c>
       <c r="I240" s="82" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="241" spans="1:23" ht="290" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C241" s="77" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="C241" s="77" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>1158</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="242" spans="1:23" ht="232" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C242" s="77" t="s">
         <v>1159</v>
       </c>
-      <c r="C242" s="77" t="s">
+      <c r="D242" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="243" spans="1:23" ht="203" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C243" s="77" t="s">
         <v>1167</v>
       </c>
-      <c r="C243" s="77" t="s">
-        <v>1168</v>
-      </c>
       <c r="D243" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V243" s="2"/>
     </row>
     <row r="244" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C244" s="77" t="s">
         <v>1169</v>
-      </c>
-      <c r="C244" s="77" t="s">
-        <v>1170</v>
       </c>
       <c r="V244" s="2"/>
     </row>
     <row r="245" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C245" s="77" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="C245" s="77" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>1172</v>
       </c>
       <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:23" ht="232" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C246" s="77" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="C246" s="77" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="V246" s="2"/>
     </row>
@@ -38721,373 +38796,373 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="250" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="85" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C250" s="1"/>
       <c r="F250" s="85" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G250" s="78"/>
       <c r="H250" s="2"/>
       <c r="K250" s="85" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P250" s="85" t="s">
         <v>1188</v>
       </c>
-      <c r="P250" s="85" t="s">
-        <v>1189</v>
-      </c>
       <c r="U250" s="92" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="251" spans="1:23" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C251" s="86" t="s">
         <v>1190</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="C251" s="86" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>1257</v>
-      </c>
       <c r="F251" s="94" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G251" s="19"/>
       <c r="H251" s="95" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="P251" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q251" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R251" s="93" t="s">
         <v>1271</v>
       </c>
-      <c r="Q251" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="R251" s="93" t="s">
-        <v>1272</v>
-      </c>
       <c r="U251" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="V251" s="90" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W251" s="81" t="s">
         <v>1239</v>
-      </c>
-      <c r="V251" s="90" t="s">
-        <v>1241</v>
-      </c>
-      <c r="W251" s="81" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="252" spans="1:23" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>1220</v>
-      </c>
       <c r="C252" s="89" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D252" s="81" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F252" s="87" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H252" s="86" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K252" s="87" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M252" s="86" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="N252" s="81" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="P252" s="87" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R252" s="89" t="s">
+        <v>1216</v>
+      </c>
+      <c r="S252" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="S252" s="2" t="s">
-        <v>1218</v>
-      </c>
       <c r="V252" s="93" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W252" s="82" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="253" spans="1:23" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D253" s="91" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F253" s="87" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H253" s="89" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I253" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="I253" s="2" t="s">
-        <v>1211</v>
-      </c>
       <c r="N253" s="82" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="P253" s="87" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R253" s="86" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="U253" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V253" s="95" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="W253" s="96" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="254" spans="1:23" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C254" s="55" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D254" s="81" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F254" s="87" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H254" s="86" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K254" s="87" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M254" s="86" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P254" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R254" s="93" t="s">
+        <v>1287</v>
+      </c>
+      <c r="S254" s="81" t="s">
         <v>1228</v>
       </c>
-      <c r="R254" s="93" t="s">
-        <v>1288</v>
-      </c>
-      <c r="S254" s="81" t="s">
-        <v>1229</v>
-      </c>
       <c r="U254" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V254" s="19"/>
       <c r="W254" s="97" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="255" spans="1:23" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2"/>
       <c r="C255" s="55"/>
       <c r="D255" s="82" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F255" s="87" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H255" s="214" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I255" s="81" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K255" s="87" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M255" s="89" t="s">
+        <v>1215</v>
+      </c>
+      <c r="N255" s="81" t="s">
         <v>1234</v>
-      </c>
-      <c r="K255" s="87" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M255" s="89" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N255" s="81" t="s">
-        <v>1235</v>
       </c>
       <c r="R255" s="90"/>
       <c r="S255" s="82" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="U255" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="V255" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W255" s="95" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="256" spans="1:23" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C256" s="89" t="s">
         <v>1223</v>
-      </c>
-      <c r="C256" s="89" t="s">
-        <v>1224</v>
       </c>
       <c r="G256" s="1"/>
       <c r="I256" s="82" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="N256" s="82" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="P256" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R256" s="93" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S256" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="R256" s="93" t="s">
-        <v>1278</v>
-      </c>
-      <c r="S256" s="2" t="s">
-        <v>1277</v>
-      </c>
       <c r="U256" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="V256" s="19"/>
       <c r="W256" s="96" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C257" s="93" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D257" s="84" t="s">
         <v>1225</v>
       </c>
-      <c r="C257" s="93" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D257" s="84" t="s">
-        <v>1226</v>
-      </c>
       <c r="F257" s="87" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H257" s="214" t="s">
         <v>1690</v>
       </c>
-      <c r="H257" s="214" t="s">
+      <c r="I257" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="I257" s="2" t="s">
-        <v>1694</v>
-      </c>
       <c r="K257" s="87" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L257" s="2"/>
       <c r="M257" s="86" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="U257" s="19"/>
       <c r="V257" s="19"/>
       <c r="W257" s="97" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C258" s="55" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D258" s="81" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F258" s="87" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H258" s="214" t="s">
         <v>1691</v>
       </c>
-      <c r="H258" s="214" t="s">
-        <v>1693</v>
-      </c>
       <c r="I258" s="2" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="K258" s="87" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L258" s="2"/>
       <c r="M258" s="86" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V258" s="2"/>
     </row>
     <row r="259" spans="1:24" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D259" s="82" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F259" s="87" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H259" s="214" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I259" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="I259" s="2" t="s">
-        <v>1275</v>
-      </c>
       <c r="K259" s="87" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L259" s="2"/>
       <c r="M259" s="100" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C260" s="90" t="s">
         <v>1245</v>
       </c>
-      <c r="C260" s="90" t="s">
-        <v>1246</v>
-      </c>
       <c r="F260" s="87" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H260" s="86" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V260" s="2"/>
     </row>
@@ -39095,13 +39170,13 @@
       <c r="C261" s="93"/>
       <c r="D261" s="8"/>
       <c r="F261" s="88" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H261" s="86" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I261" s="81" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M261" s="86"/>
       <c r="V261" s="2"/>
@@ -39109,7 +39184,7 @@
     <row r="262" spans="1:24" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D262" s="8"/>
       <c r="I262" s="82" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M262" s="86"/>
       <c r="V262" s="2"/>
@@ -39117,13 +39192,13 @@
     <row r="263" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="D263" s="8"/>
       <c r="F263" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H263" s="90" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M263" s="86"/>
       <c r="V263" s="2"/>
@@ -39131,13 +39206,13 @@
     <row r="264" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="D264" s="8"/>
       <c r="F264" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H264" s="90" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I264" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>1251</v>
       </c>
       <c r="M264" s="86"/>
       <c r="V264" s="2"/>
@@ -39174,18 +39249,18 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A269" s="92" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F269" s="85" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G269" s="78"/>
       <c r="H269" s="2"/>
@@ -39193,269 +39268,269 @@
         <v>61</v>
       </c>
       <c r="L269" s="103" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="M269" s="103" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="P269" s="3" t="s">
         <v>1</v>
       </c>
       <c r="U269" s="102" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C270" s="100" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F270" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="C270" s="100" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>1313</v>
-      </c>
       <c r="H270" s="101" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="L270" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="P270" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Q270" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="Q270" s="2" t="s">
+      <c r="R270" s="99" t="s">
+        <v>1303</v>
+      </c>
+      <c r="S270" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="R270" s="99" t="s">
-        <v>1304</v>
-      </c>
-      <c r="S270" s="2" t="s">
-        <v>1303</v>
-      </c>
       <c r="U270" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="V270" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C271" s="20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H271" s="101" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="U271" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V271" s="100" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="W271" s="81" t="s">
+        <v>1345</v>
+      </c>
+      <c r="X271" s="81" t="s">
         <v>1346</v>
-      </c>
-      <c r="X271" s="81" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C272" s="105" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D272" s="84" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H272" s="101" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="V272" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="W272" s="82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="X272" s="82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>1311</v>
-      </c>
       <c r="C273" s="105" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H273" s="101" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="U273" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="V273" s="100" t="s">
         <v>1352</v>
       </c>
-      <c r="V273" s="100" t="s">
-        <v>1353</v>
-      </c>
       <c r="W273" s="84" t="s">
+        <v>1349</v>
+      </c>
+      <c r="X273" s="2" t="s">
         <v>1350</v>
-      </c>
-      <c r="X273" s="2" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B274" s="105" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C274" s="106" t="s">
         <v>1404</v>
       </c>
-      <c r="C274" s="106" t="s">
-        <v>1405</v>
-      </c>
       <c r="D274" s="81" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H274" s="101" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C275" s="107" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D275" s="82" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="101" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F276" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="101" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F277" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="101" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F278" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="101" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F279" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="101" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="25" x14ac:dyDescent="0.35">
       <c r="F280" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="101" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
@@ -39475,8 +39550,8 @@
   </sheetPr>
   <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39539,7 +39614,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -39588,11 +39663,11 @@
         <v>3</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S5" s="48"/>
       <c r="U5" s="1" t="s">
@@ -39604,81 +39679,81 @@
     </row>
     <row r="6" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F6" s="137" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G6" s="128" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I6" s="138"/>
       <c r="K6" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R6" s="48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S6" s="48"/>
       <c r="U6" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I7" s="132"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R7" s="54" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S7" s="54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="2"/>
@@ -39686,33 +39761,33 @@
     </row>
     <row r="8" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F8" s="139" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I8" s="132"/>
       <c r="M8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R8" s="48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S8" s="48"/>
       <c r="U8" s="1"/>
@@ -39720,31 +39795,31 @@
     </row>
     <row r="9" spans="1:24" ht="203" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I9" s="132"/>
       <c r="K9" s="2"/>
       <c r="M9" s="36"/>
       <c r="P9" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="S9" s="2"/>
       <c r="U9" s="1"/>
@@ -39752,34 +39827,34 @@
     </row>
     <row r="10" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>499</v>
-      </c>
       <c r="F10" s="131" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I10" s="140"/>
       <c r="M10" s="8"/>
       <c r="P10" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="S10" s="54" t="s">
         <v>796</v>
-      </c>
-      <c r="S10" s="54" t="s">
-        <v>797</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="2"/>
@@ -39788,20 +39863,20 @@
       <c r="A11" s="2"/>
       <c r="C11" s="48"/>
       <c r="F11" s="131" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I11" s="140"/>
       <c r="M11" s="8"/>
       <c r="P11" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S11" s="14"/>
       <c r="U11" s="1"/>
@@ -39809,65 +39884,65 @@
     </row>
     <row r="12" spans="1:24" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F12" s="133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H12" s="141" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I12" s="142" t="s">
         <v>1419</v>
-      </c>
-      <c r="I12" s="142" t="s">
-        <v>1420</v>
       </c>
       <c r="L12" s="2"/>
       <c r="P12" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="F13" s="127" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" s="128" t="s">
         <v>515</v>
       </c>
-      <c r="G13" s="128" t="s">
-        <v>516</v>
-      </c>
       <c r="H13" s="129" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I13" s="130" t="s">
         <v>1417</v>
       </c>
-      <c r="I13" s="130" t="s">
-        <v>1418</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F14" s="131" t="s">
+        <v>516</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="H14" s="111" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I14" s="132" t="s">
         <v>1421</v>
-      </c>
-      <c r="I14" s="132" t="s">
-        <v>1422</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -39875,20 +39950,20 @@
     </row>
     <row r="15" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F15" s="133" t="s">
+        <v>645</v>
+      </c>
+      <c r="G15" s="134" t="s">
         <v>646</v>
       </c>
-      <c r="G15" s="134" t="s">
+      <c r="H15" s="135" t="s">
         <v>647</v>
-      </c>
-      <c r="H15" s="135" t="s">
-        <v>648</v>
       </c>
       <c r="I15" s="136"/>
       <c r="M15" s="2"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S15" s="2"/>
       <c r="U15" s="1"/>
@@ -39896,14 +39971,14 @@
     </row>
     <row r="16" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F16" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="111" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1424</v>
       </c>
       <c r="M16" s="2"/>
       <c r="P16" s="1"/>
@@ -39916,13 +39991,13 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="F17" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="48" t="s">
         <v>525</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>526</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -39932,11 +40007,11 @@
     </row>
     <row r="18" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F18" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M18" s="33"/>
       <c r="P18" s="1"/>
@@ -39948,11 +40023,11 @@
     <row r="19" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C19" s="12"/>
       <c r="F19" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M19" s="12"/>
       <c r="U19" s="1"/>
@@ -39960,11 +40035,11 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F20" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="112" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="M20" s="12"/>
       <c r="U20" s="1"/>
@@ -39972,13 +40047,13 @@
     </row>
     <row r="21" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="F21" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="50" t="s">
         <v>640</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>641</v>
       </c>
       <c r="M21" s="12"/>
       <c r="U21" s="1"/>
@@ -39996,7 +40071,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="12"/>
@@ -40048,11 +40123,11 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S25" s="48"/>
       <c r="U25" s="1" t="s">
@@ -40064,14 +40139,14 @@
     </row>
     <row r="26" spans="1:24" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A26" s="144" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B26" s="128"/>
       <c r="C26" s="143" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F26" s="127" t="s">
         <v>191</v>
@@ -40084,13 +40159,13 @@
       </c>
       <c r="I26" s="138"/>
       <c r="K26" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M26" s="126" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="M26" s="126" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="36"/>
@@ -40098,13 +40173,13 @@
     <row r="27" spans="1:24" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="133"/>
       <c r="B27" s="134" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C27" s="145" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D27" s="142" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F27" s="131" t="s">
         <v>193</v>
@@ -40122,13 +40197,13 @@
     </row>
     <row r="28" spans="1:24" ht="174" x14ac:dyDescent="0.35">
       <c r="A28" s="144" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B28" s="128" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D28" s="138"/>
       <c r="F28" s="131" t="s">
@@ -40149,10 +40224,10 @@
       <c r="A29" s="131"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D29" s="140" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F29" s="131" t="s">
         <v>199</v>
@@ -40171,7 +40246,7 @@
       <c r="A30" s="133"/>
       <c r="B30" s="134"/>
       <c r="C30" s="145" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D30" s="136"/>
       <c r="F30" s="131" t="s">
@@ -40198,7 +40273,7 @@
         <v>196</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F31" s="131" t="s">
         <v>221</v>
@@ -40210,7 +40285,7 @@
         <v>223</v>
       </c>
       <c r="I31" s="132" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="14"/>
@@ -40244,7 +40319,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="126" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D33" s="140"/>
       <c r="F33" s="133" t="s">
@@ -40266,7 +40341,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D34" s="140"/>
       <c r="F34" s="155" t="s">
@@ -40276,7 +40351,7 @@
         <v>417</v>
       </c>
       <c r="H34" s="157" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I34" s="138"/>
       <c r="L34" s="2"/>
@@ -40349,12 +40424,12 @@
     </row>
     <row r="38" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A38" s="144" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B38" s="128"/>
       <c r="C38" s="146"/>
       <c r="D38" s="138" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F38" s="151" t="s">
         <v>431</v>
@@ -40375,7 +40450,7 @@
         <v>412</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D39" s="140"/>
       <c r="F39" s="151" t="s">
@@ -40443,7 +40518,7 @@
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D42" s="132"/>
       <c r="F42" s="158" t="s">
@@ -40467,7 +40542,7 @@
       </c>
       <c r="B43" s="153"/>
       <c r="C43" s="154" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D43" s="142"/>
       <c r="F43" s="151" t="s">
@@ -40605,7 +40680,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F51" s="144" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G51" s="128"/>
       <c r="H51" s="149"/>
@@ -40750,13 +40825,13 @@
         <v>104</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>145</v>
       </c>
       <c r="I61" s="132" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="L61" s="12"/>
       <c r="S61" s="2"/>
@@ -40832,14 +40907,14 @@
     </row>
     <row r="67" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A67" s="163" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B67" s="128"/>
       <c r="C67" s="164" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F67" s="137" t="s">
         <v>391</v>
@@ -40859,7 +40934,7 @@
         <v>272</v>
       </c>
       <c r="N67" s="130" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
@@ -40867,13 +40942,13 @@
     </row>
     <row r="68" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="131" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C68" s="162" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D68" s="140"/>
       <c r="F68" s="139" t="s">
@@ -40887,10 +40962,10 @@
         <v>393</v>
       </c>
       <c r="K68" s="131" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M68" s="55" t="s">
         <v>1520</v>
-      </c>
-      <c r="M68" s="55" t="s">
-        <v>1521</v>
       </c>
       <c r="N68" s="140"/>
       <c r="Q68" s="29"/>
@@ -40901,10 +40976,10 @@
     </row>
     <row r="69" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="131" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C69" s="162" t="s">
         <v>1504</v>
-      </c>
-      <c r="C69" s="162" t="s">
-        <v>1505</v>
       </c>
       <c r="D69" s="140"/>
       <c r="F69" s="152" t="s">
@@ -40933,13 +41008,13 @@
     </row>
     <row r="70" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A70" s="139" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C70" s="162" t="s">
         <v>1508</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C70" s="162" t="s">
-        <v>1509</v>
       </c>
       <c r="D70" s="140"/>
       <c r="K70" s="131" t="s">
@@ -40959,18 +41034,18 @@
     </row>
     <row r="71" spans="1:22" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="152" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B71" s="134"/>
       <c r="C71" s="165" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D71" s="136"/>
       <c r="K71" s="131" t="s">
         <v>275</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="M71" s="12" t="s">
         <v>276</v>
@@ -40983,13 +41058,13 @@
     </row>
     <row r="72" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C72" s="162" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="K72" s="133" t="s">
         <v>394</v>
@@ -41006,10 +41081,10 @@
     </row>
     <row r="73" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C73" s="162" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="2"/>
@@ -41094,11 +41169,11 @@
         <v>3</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S78" s="48"/>
       <c r="U78" s="1" t="s">
@@ -41110,16 +41185,16 @@
     </row>
     <row r="79" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C79" s="162" t="s">
         <v>1523</v>
       </c>
-      <c r="C79" s="162" t="s">
+      <c r="D79" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>1525</v>
-      </c>
       <c r="F79" s="137" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G79" s="149"/>
       <c r="H79" s="128" t="s">
@@ -41133,13 +41208,13 @@
     </row>
     <row r="80" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C80" s="168" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>1537</v>
-      </c>
-      <c r="C80" s="168" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1538</v>
       </c>
       <c r="F80" s="139" t="s">
         <v>354</v>
@@ -41151,7 +41226,7 @@
         <v>358</v>
       </c>
       <c r="I80" s="167" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L80" s="12"/>
       <c r="M80" s="2"/>
@@ -41161,13 +41236,13 @@
     </row>
     <row r="81" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C81" s="168" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="139" t="s">
         <v>359</v>
@@ -41192,7 +41267,7 @@
         <v>45</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I82" s="132"/>
       <c r="L82" s="12"/>
@@ -41202,13 +41277,13 @@
     </row>
     <row r="83" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F83" s="131" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H83" s="215" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="I83" s="140"/>
       <c r="L83" s="12"/>
@@ -41218,20 +41293,20 @@
     </row>
     <row r="84" spans="1:26" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F84" s="131" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="I84" s="140"/>
     </row>
     <row r="85" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="F85" s="131"/>
       <c r="G85" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I85" s="140"/>
       <c r="P85" s="1"/>
@@ -41239,7 +41314,7 @@
     <row r="86" spans="1:26" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F86" s="131"/>
       <c r="G86" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="140"/>
@@ -41250,11 +41325,11 @@
     </row>
     <row r="87" spans="1:26" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F87" s="133" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G87" s="147"/>
       <c r="H87" s="165" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="I87" s="136"/>
       <c r="Q87" s="1"/>
@@ -41298,7 +41373,7 @@
         <v>282</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="P90" s="1"/>
       <c r="U90" s="1"/>
@@ -41309,10 +41384,10 @@
         <v>61</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C91" s="169" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2</v>
@@ -41332,11 +41407,11 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="122" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B92" s="42"/>
       <c r="C92" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D92" s="2"/>
       <c r="F92" s="42"/>
@@ -41349,7 +41424,7 @@
     </row>
     <row r="93" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B93" s="42"/>
       <c r="C93" s="2"/>
@@ -41362,13 +41437,13 @@
     </row>
     <row r="94" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="172" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B94" s="174" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C94" s="170" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D94" s="130"/>
       <c r="F94" s="42"/>
@@ -41384,13 +41459,13 @@
     <row r="95" spans="1:26" ht="203" x14ac:dyDescent="0.35">
       <c r="A95" s="139"/>
       <c r="B95" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C95" s="168" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D95" s="132" t="s">
         <v>1546</v>
-      </c>
-      <c r="D95" s="132" t="s">
-        <v>1547</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
@@ -41404,11 +41479,11 @@
     </row>
     <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="173" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B96" s="134"/>
       <c r="C96" s="171" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D96" s="142"/>
       <c r="F96" s="42"/>
@@ -41423,13 +41498,13 @@
     </row>
     <row r="97" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="172" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B97" s="174" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C97" s="170" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D97" s="130"/>
       <c r="F97" s="42"/>
@@ -41444,13 +41519,13 @@
     </row>
     <row r="98" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="172" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B98" s="174" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C98" s="170" t="s">
         <v>1557</v>
-      </c>
-      <c r="B98" s="174" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C98" s="170" t="s">
-        <v>1558</v>
       </c>
       <c r="D98" s="130"/>
       <c r="F98" s="42"/>
@@ -41465,13 +41540,13 @@
     </row>
     <row r="99" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A99" s="139" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D99" s="132" t="s">
         <v>1588</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D99" s="132" t="s">
-        <v>1589</v>
       </c>
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
@@ -41484,16 +41559,16 @@
     </row>
     <row r="100" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="139" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C100" s="168" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D100" s="132" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
@@ -41506,13 +41581,13 @@
     </row>
     <row r="101" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="175" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C101" s="168" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D101" s="132"/>
       <c r="F101" s="42"/>
@@ -41526,16 +41601,16 @@
     </row>
     <row r="102" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="173" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B102" s="180" t="s">
         <v>1593</v>
       </c>
-      <c r="B102" s="180" t="s">
-        <v>1594</v>
-      </c>
       <c r="C102" s="171" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D102" s="142" t="s">
         <v>1591</v>
-      </c>
-      <c r="D102" s="142" t="s">
-        <v>1592</v>
       </c>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -41548,13 +41623,13 @@
     </row>
     <row r="103" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A103" s="172" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B103" s="174" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C103" s="128" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D103" s="130"/>
       <c r="F103" s="42"/>
@@ -41569,14 +41644,14 @@
     </row>
     <row r="104" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="181" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B104" s="176"/>
       <c r="C104" s="177" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D104" s="182" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F104" s="42"/>
       <c r="H104" s="14"/>
@@ -41589,13 +41664,13 @@
     </row>
     <row r="105" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="181" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B105" s="189" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C105" s="177" t="s">
         <v>1596</v>
-      </c>
-      <c r="B105" s="189" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C105" s="177" t="s">
-        <v>1597</v>
       </c>
       <c r="D105" s="182"/>
       <c r="F105" s="42"/>
@@ -41609,13 +41684,13 @@
     </row>
     <row r="106" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="181" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B106" s="189" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C106" s="177" t="s">
         <v>1599</v>
-      </c>
-      <c r="C106" s="177" t="s">
-        <v>1600</v>
       </c>
       <c r="D106" s="182"/>
       <c r="F106" s="42"/>
@@ -41629,16 +41704,16 @@
     </row>
     <row r="107" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A107" s="183" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B107" s="179" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C107" s="178" t="s">
         <v>1566</v>
       </c>
-      <c r="B107" s="179" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C107" s="178" t="s">
-        <v>1567</v>
-      </c>
       <c r="D107" s="184" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F107" s="42"/>
       <c r="H107" s="14"/>
@@ -41651,16 +41726,16 @@
     </row>
     <row r="108" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A108" s="187" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B108" s="179" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C108" s="178" t="s">
         <v>1570</v>
       </c>
-      <c r="B108" s="179" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C108" s="178" t="s">
+      <c r="D108" s="184" t="s">
         <v>1571</v>
-      </c>
-      <c r="D108" s="184" t="s">
-        <v>1572</v>
       </c>
       <c r="F108" s="42"/>
       <c r="H108" s="14"/>
@@ -41673,16 +41748,16 @@
     </row>
     <row r="109" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A109" s="187" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B109" s="185" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C109" s="186" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D109" s="184" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F109" s="42"/>
       <c r="H109" s="14"/>
@@ -41695,16 +41770,16 @@
     </row>
     <row r="110" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="173" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B110" s="188" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C110" s="134" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D110" s="142" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F110" s="42"/>
       <c r="H110" s="14"/>
@@ -41776,7 +41851,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="240" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B115" s="149"/>
       <c r="C115" s="149"/>
@@ -41785,25 +41860,25 @@
     </row>
     <row r="116" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A116" s="192" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C116" s="205" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D116" s="132" t="s">
         <v>1604</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C116" s="205" t="s">
+      <c r="F116" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D116" s="132" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="H116" s="191" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="H116" s="191" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>1608</v>
       </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -41813,19 +41888,19 @@
     </row>
     <row r="117" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="193" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C117" s="190"/>
       <c r="D117" s="132"/>
       <c r="F117" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="191" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>1611</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>1612</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -41835,22 +41910,22 @@
     </row>
     <row r="118" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="194" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D118" s="132"/>
       <c r="F118" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="191" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -41860,11 +41935,11 @@
     </row>
     <row r="119" spans="1:23" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="194" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B119" s="108"/>
       <c r="C119" s="195" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D119" s="132"/>
       <c r="G119" s="1"/>
@@ -41878,7 +41953,7 @@
     </row>
     <row r="120" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A120" s="194" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B120" s="108"/>
       <c r="C120" s="26" t="s">
@@ -41886,11 +41961,11 @@
       </c>
       <c r="D120" s="140"/>
       <c r="F120" s="204" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G120" s="149"/>
       <c r="H120" s="218" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="I120" s="138"/>
       <c r="K120" s="2"/>
@@ -41902,10 +41977,10 @@
     </row>
     <row r="121" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="194" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B121" s="108" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C121" s="196" t="s">
         <v>305</v>
@@ -41915,13 +41990,13 @@
         <v>62</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H121" s="217" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="I121" s="140" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -41932,24 +42007,24 @@
     </row>
     <row r="122" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="197" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B122" s="195" t="s">
         <v>1620</v>
-      </c>
-      <c r="B122" s="195" t="s">
-        <v>1621</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="140"/>
       <c r="F122" s="139" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="I122" s="132" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="L122" s="12"/>
       <c r="S122" s="2"/>
@@ -41960,17 +42035,17 @@
       <c r="A123" s="152"/>
       <c r="B123" s="134"/>
       <c r="C123" s="134" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D123" s="142"/>
       <c r="F123" s="139" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G123" s="211" t="s">
         <v>1760</v>
       </c>
-      <c r="G123" s="211" t="s">
-        <v>1762</v>
-      </c>
       <c r="H123" s="217" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="I123" s="140"/>
       <c r="L123" s="12"/>
@@ -41982,199 +42057,199 @@
     </row>
     <row r="124" spans="1:23" ht="116" x14ac:dyDescent="0.35">
       <c r="A124" s="204" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B124" s="128" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C124" s="128"/>
       <c r="D124" s="130" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F124" s="223" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G124" s="211" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H124" s="217" t="s">
         <v>1767</v>
       </c>
-      <c r="G124" s="211" t="s">
-        <v>1772</v>
-      </c>
-      <c r="H124" s="217" t="s">
-        <v>1769</v>
-      </c>
       <c r="I124" s="224" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="139" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D125" s="132"/>
       <c r="F125" s="219" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H125" s="217" t="s">
         <v>1768</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="H125" s="217" t="s">
-        <v>1770</v>
-      </c>
       <c r="I125" s="224" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="L125" s="12"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="139" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>1625</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>1626</v>
       </c>
       <c r="D126" s="132"/>
       <c r="F126" s="139" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G126" s="211" t="s">
         <v>1771</v>
       </c>
-      <c r="G126" s="211" t="s">
+      <c r="H126" s="217" t="s">
         <v>1773</v>
-      </c>
-      <c r="H126" s="217" t="s">
-        <v>1775</v>
       </c>
       <c r="I126" s="140"/>
       <c r="L126" s="12"/>
     </row>
     <row r="127" spans="1:23" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="152" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B127" s="134" t="s">
-        <v>1629</v>
+        <v>1849</v>
       </c>
       <c r="C127" s="134" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D127" s="142"/>
       <c r="F127" s="139" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="G127" s="211" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H127" s="217" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="I127" s="132" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="241" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B128" s="242"/>
       <c r="C128" s="242"/>
       <c r="D128" s="243" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F128" s="152" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="G128" s="227" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="H128" s="225" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="I128" s="226" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="L128" s="12"/>
     </row>
     <row r="129" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="244" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B129" s="245"/>
       <c r="C129" s="245" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D129" s="246"/>
       <c r="F129" s="204" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="G129" s="247"/>
       <c r="H129" s="248" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="I129" s="130" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="L129" s="12"/>
     </row>
     <row r="130" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A130" s="244" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B130" s="245"/>
       <c r="C130" s="245" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D130" s="246"/>
       <c r="F130" s="249"/>
       <c r="G130" s="55" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H130" s="217" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="I130" s="132" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="228" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B131" s="206" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C131" s="207" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D131" s="229"/>
       <c r="F131" s="139" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="G131" s="55" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H131" s="217" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="I131" s="132"/>
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="230" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C132" s="205" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D132" s="132"/>
       <c r="F132" s="152"/>
       <c r="G132" s="134"/>
       <c r="H132" s="225" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="I132" s="142"/>
       <c r="L132" s="12"/>
@@ -42182,7 +42257,7 @@
     <row r="133" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="131"/>
       <c r="C133" s="205" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D133" s="140"/>
       <c r="F133" s="2"/>
@@ -42193,16 +42268,16 @@
     </row>
     <row r="134" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A134" s="139" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B134" s="211" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D134" s="132" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="1"/>
@@ -42211,77 +42286,77 @@
     </row>
     <row r="135" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="231" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B135" s="208" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C135" s="209" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D135" s="182" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="G135" s="1"/>
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A136" s="232" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B136" s="212" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C136" s="210" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D136" s="233" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="G136" s="1"/>
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A137" s="234" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D137" s="235" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="G137" s="1"/>
       <c r="L137" s="12"/>
     </row>
     <row r="138" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="236" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D138" s="235" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="G138" s="1"/>
       <c r="L138" s="12"/>
     </row>
     <row r="139" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="139" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D139" s="140"/>
       <c r="G139" s="1"/>
@@ -42289,80 +42364,80 @@
     </row>
     <row r="140" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A140" s="237" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B140" s="213" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C140" s="176" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D140" s="182" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="G140" s="1"/>
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="238" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B141" s="220" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C141" s="206" t="s">
         <v>1662</v>
       </c>
-      <c r="B141" s="220" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C141" s="206" t="s">
-        <v>1664</v>
-      </c>
       <c r="D141" s="239" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G141" s="1"/>
       <c r="L141" s="12"/>
     </row>
     <row r="142" spans="1:12" ht="174" x14ac:dyDescent="0.35">
       <c r="A142" s="137" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B142" s="128" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C142" s="218" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D142" s="130" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="G142" s="1"/>
       <c r="L142" s="12"/>
     </row>
     <row r="143" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A143" s="139" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C143" s="221" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D143" s="132" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="G143" s="1"/>
       <c r="L143" s="12"/>
     </row>
     <row r="144" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A144" s="139" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D144" s="132" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="1"/>
@@ -42371,16 +42446,16 @@
     </row>
     <row r="145" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="152" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B145" s="147" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C145" s="222" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D145" s="136" t="s">
         <v>1695</v>
-      </c>
-      <c r="B145" s="147" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C145" s="222" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D145" s="136" t="s">
-        <v>1697</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="1"/>
@@ -42472,7 +42547,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="P154" s="1"/>
       <c r="U154" s="1"/>
@@ -42500,13 +42575,13 @@
     </row>
     <row r="156" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D156" s="2"/>
       <c r="F156"/>
@@ -42516,13 +42591,13 @@
     <row r="157" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F157"/>
       <c r="G157" s="1"/>
@@ -42530,13 +42605,13 @@
     </row>
     <row r="158" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C158" s="216" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D158" s="2"/>
       <c r="F158"/>
@@ -42545,13 +42620,13 @@
     </row>
     <row r="159" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="137" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B159" s="128" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C159" s="218" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D159" s="130"/>
       <c r="F159"/>
@@ -42560,10 +42635,10 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160" s="139" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D160" s="132"/>
       <c r="F160"/>
@@ -42572,10 +42647,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="139" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D161" s="132"/>
       <c r="F161"/>
@@ -42584,10 +42659,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="139" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D162" s="132"/>
       <c r="F162"/>
@@ -42596,13 +42671,13 @@
     </row>
     <row r="163" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="139" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D163" s="132" t="s">
         <v>1718</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D163" s="132" t="s">
-        <v>1720</v>
       </c>
       <c r="F163"/>
       <c r="G163" s="1"/>
@@ -42610,13 +42685,13 @@
     </row>
     <row r="164" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A164" s="139" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B164" s="217" t="s">
         <v>1721</v>
       </c>
-      <c r="B164" s="217" t="s">
-        <v>1723</v>
-      </c>
       <c r="C164" s="259" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D164" s="132"/>
       <c r="F164"/>
@@ -42625,10 +42700,10 @@
     </row>
     <row r="165" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A165" s="139" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C165" s="259" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D165" s="132"/>
       <c r="F165"/>
@@ -42637,14 +42712,14 @@
     </row>
     <row r="166" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="152" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B166" s="134"/>
       <c r="C166" s="260" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D166" s="142" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F166"/>
       <c r="G166" s="1"/>
@@ -42652,11 +42727,11 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="137" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B167" s="128"/>
       <c r="C167" s="128" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D167" s="130"/>
       <c r="F167"/>
@@ -42665,16 +42740,16 @@
     </row>
     <row r="168" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="139" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B168" s="217" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C168" s="217" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D168" s="132" t="s">
         <v>1728</v>
-      </c>
-      <c r="B168" s="217" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C168" s="217" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D168" s="132" t="s">
-        <v>1730</v>
       </c>
       <c r="F168"/>
       <c r="G168" s="1"/>
@@ -42682,10 +42757,10 @@
     </row>
     <row r="169" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A169" s="219" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C169" s="217" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D169" s="132"/>
       <c r="F169"/>
@@ -42694,13 +42769,13 @@
     </row>
     <row r="170" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A170" s="139" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B170" s="217" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C170" s="217" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D170" s="132"/>
       <c r="F170"/>
@@ -42709,10 +42784,10 @@
     </row>
     <row r="171" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="139" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D171" s="132"/>
       <c r="F171"/>
@@ -42721,11 +42796,11 @@
     </row>
     <row r="172" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="139" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D172" s="132"/>
       <c r="F172"/>
@@ -42734,10 +42809,10 @@
     </row>
     <row r="173" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="139" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C173" s="217" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D173" s="132"/>
       <c r="F173"/>
@@ -42746,10 +42821,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="139" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D174" s="132"/>
       <c r="F174"/>
@@ -42758,10 +42833,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="139" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D175" s="132"/>
       <c r="F175"/>
@@ -42770,10 +42845,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="139" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D176" s="132"/>
       <c r="F176"/>
@@ -42782,10 +42857,10 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="139" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D177" s="132"/>
       <c r="F177"/>
@@ -42794,14 +42869,14 @@
     </row>
     <row r="178" spans="1:23" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="152" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B178" s="134"/>
       <c r="C178" s="134" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D178" s="142" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="G178" s="1"/>
     </row>
@@ -42831,7 +42906,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="P181" s="1"/>
       <c r="U181" s="1"/>
@@ -42842,7 +42917,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="169" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="F182" s="125" t="s">
         <v>61</v>
@@ -42862,13 +42937,13 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B183" s="257" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C183" s="258" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D183" s="2"/>
       <c r="G183" s="1"/>
@@ -42879,10 +42954,10 @@
     </row>
     <row r="184" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D184" s="2"/>
       <c r="G184" s="1"/>
@@ -42891,39 +42966,39 @@
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="217" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -42933,11 +43008,11 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="144" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B189" s="128"/>
       <c r="C189" s="248" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D189" s="130"/>
       <c r="F189" s="2"/>
@@ -42949,10 +43024,10 @@
     </row>
     <row r="190" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A190" s="250" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C190" s="217" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D190" s="132"/>
       <c r="F190" s="2"/>
@@ -42970,10 +43045,10 @@
     </row>
     <row r="191" spans="1:23" ht="145" x14ac:dyDescent="0.35">
       <c r="A191" s="139" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C191" s="217" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D191" s="132"/>
       <c r="F191" s="2"/>
@@ -42988,10 +43063,10 @@
     </row>
     <row r="192" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A192" s="139" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C192" s="217" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D192" s="132"/>
       <c r="F192" s="2"/>
@@ -43005,11 +43080,11 @@
     </row>
     <row r="193" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="251" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B193" s="134"/>
       <c r="C193" s="225" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D193" s="142"/>
       <c r="F193" s="2"/>
@@ -43023,11 +43098,11 @@
     </row>
     <row r="194" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A194" s="144" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B194" s="128"/>
       <c r="C194" s="128" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D194" s="130"/>
       <c r="F194" s="2"/>
@@ -43041,13 +43116,13 @@
     </row>
     <row r="195" spans="1:24" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="152" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B195" s="227" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C195" s="134" t="s">
         <v>1819</v>
-      </c>
-      <c r="B195" s="227" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C195" s="134" t="s">
-        <v>1821</v>
       </c>
       <c r="D195" s="142"/>
       <c r="F195" s="2"/>
@@ -43061,11 +43136,11 @@
     </row>
     <row r="196" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A196" s="204" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B196" s="128"/>
       <c r="C196" s="128" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D196" s="130"/>
       <c r="K196" s="2"/>
@@ -43077,10 +43152,10 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A197" s="252" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D197" s="132"/>
       <c r="K197" s="2"/>
@@ -43091,10 +43166,10 @@
     </row>
     <row r="198" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="139" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D198" s="132"/>
       <c r="K198" s="2"/>
@@ -43104,11 +43179,11 @@
     </row>
     <row r="199" spans="1:24" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="152" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B199" s="134"/>
       <c r="C199" s="134" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D199" s="142"/>
       <c r="K199" s="2"/>
@@ -43118,28 +43193,28 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A200" s="144" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B200" s="128"/>
       <c r="C200" s="128" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D200" s="130"/>
     </row>
     <row r="201" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A201" s="139"/>
       <c r="C201" s="217" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D201" s="132"/>
     </row>
     <row r="202" spans="1:24" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="152" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B202" s="134"/>
       <c r="C202" s="134" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D202" s="142"/>
     </row>
@@ -43147,32 +43222,32 @@
       <c r="A203" s="253"/>
       <c r="B203" s="254"/>
       <c r="C203" s="254" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="D203" s="255"/>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204" s="19" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C205" s="256" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -44531,11 +44606,11 @@
       </c>
       <c r="C5" s="23"/>
       <c r="F5" s="198" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G5" s="199"/>
       <c r="H5" s="200" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I5" s="201"/>
       <c r="K5" s="23"/>
@@ -44561,10 +44636,10 @@
         <v>303</v>
       </c>
       <c r="F6" s="194" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H6" s="195" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I6" s="202"/>
       <c r="K6" s="23" t="s">
@@ -44594,7 +44669,7 @@
         <v>326</v>
       </c>
       <c r="F7" s="194" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>302</v>
@@ -44624,10 +44699,10 @@
         <v>325</v>
       </c>
       <c r="F8" s="194" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G8" s="108" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H8" s="196" t="s">
         <v>305</v>
@@ -44654,10 +44729,10 @@
         <v>289</v>
       </c>
       <c r="F9" s="197" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G9" s="195" t="s">
         <v>1620</v>
-      </c>
-      <c r="G9" s="195" t="s">
-        <v>1621</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="202"/>
@@ -44684,7 +44759,7 @@
       <c r="F10" s="152"/>
       <c r="G10" s="134"/>
       <c r="H10" s="134" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I10" s="203"/>
       <c r="K10" s="23" t="s">
@@ -44799,10 +44874,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D16" s="23"/>
       <c r="F16" s="23"/>
@@ -44819,10 +44894,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D17" s="23"/>
       <c r="F17" s="23"/>
@@ -44839,10 +44914,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D18" s="23"/>
       <c r="F18" s="23"/>
@@ -44859,10 +44934,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D19" s="23"/>
       <c r="F19" s="23"/>
@@ -44879,10 +44954,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D20" s="23"/>
       <c r="F20" s="23"/>
@@ -44899,10 +44974,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D21" s="23"/>
       <c r="F21" s="23"/>
@@ -44919,10 +44994,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D22" s="23"/>
       <c r="F22" s="23"/>
@@ -44995,13 +45070,13 @@
     </row>
     <row r="2" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>657</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>658</v>
       </c>
       <c r="D2" s="1"/>
       <c r="P2" s="1"/>
@@ -45013,114 +45088,114 @@
       <c r="C3" s="57"/>
       <c r="D3" s="1"/>
       <c r="J3" s="59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="57" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N3" s="60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q3" s="61" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="R3" s="57"/>
       <c r="S3" s="61" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K4" s="58"/>
       <c r="L4" s="57" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K5" s="58"/>
       <c r="L5" s="57" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="57" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K6" s="58"/>
       <c r="L6" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M6"/>
       <c r="N6" s="57" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P6" s="57"/>
       <c r="R6" s="57"/>
@@ -45130,30 +45205,30 @@
     </row>
     <row r="7" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="57" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M7"/>
       <c r="N7" s="57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O7" s="57" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P7" s="57"/>
       <c r="R7" s="57"/>
@@ -45163,23 +45238,23 @@
     </row>
     <row r="8" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="63" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K8" s="58"/>
       <c r="L8" s="57" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M8"/>
       <c r="P8" s="57"/>
@@ -45191,23 +45266,23 @@
     </row>
     <row r="9" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="63" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="57" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M9"/>
       <c r="P9" s="57"/>
@@ -45219,23 +45294,23 @@
     </row>
     <row r="10" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K10" s="58"/>
       <c r="L10" s="57" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M10"/>
       <c r="N10" s="57"/>
@@ -45249,23 +45324,23 @@
     </row>
     <row r="11" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M11"/>
       <c r="N11" s="57"/>
@@ -45279,16 +45354,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M12"/>
       <c r="N12" s="57"/>
@@ -45302,16 +45377,16 @@
     </row>
     <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="63" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M13"/>
       <c r="N13" s="57"/>
@@ -45325,459 +45400,459 @@
     </row>
     <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="63" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="63" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="63" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="63" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="63" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="63" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="63" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="63" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="63" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="63" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="63" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="63" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="63" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="63" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="63" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="63" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="63" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="63" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="63" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C35" s="63" t="s">
         <v>723</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>724</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="63" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="63" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="63" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="63" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C40" s="63" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="63" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="63" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C42" s="63" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F42"/>
     </row>
     <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F43"/>
     </row>
     <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="63" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F44"/>
     </row>
     <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="63" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C45" s="63" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F45"/>
     </row>
     <row r="46" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="63" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C46" s="63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F46"/>
     </row>
     <row r="47" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F47"/>
     </row>
     <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="C48" s="63" t="s">
         <v>737</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>738</v>
       </c>
       <c r="F48"/>
     </row>
     <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="63" t="s">
+        <v>738</v>
+      </c>
+      <c r="C49" s="63" t="s">
         <v>739</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>740</v>
       </c>
       <c r="F49"/>
     </row>
     <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="63" t="s">
+        <v>740</v>
+      </c>
+      <c r="C50" s="63" t="s">
         <v>741</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>742</v>
       </c>
       <c r="F50"/>
     </row>
     <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F51"/>
     </row>
     <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F52"/>
     </row>
     <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="63" t="s">
+        <v>744</v>
+      </c>
+      <c r="C53" s="63" t="s">
         <v>745</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="63" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -46043,7 +46118,7 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="67"/>
@@ -46053,40 +46128,40 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="115" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="108" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="108" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B6" s="108" t="s">
         <v>1436</v>
       </c>
-      <c r="B6" s="108" t="s">
-        <v>1437</v>
-      </c>
       <c r="C6" s="108" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="108" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B7" s="108" t="s">
         <v>1439</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="C7" s="108" t="s">
         <v>1440</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -46153,7 +46228,7 @@
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="67"/>
@@ -46163,100 +46238,100 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="115" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="108" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="108" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B7" s="108" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C7" s="116" t="s">
         <v>1448</v>
-      </c>
-      <c r="C7" s="116" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A8" s="108" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B8" s="108" t="s">
         <v>1451</v>
       </c>
-      <c r="B8" s="108" t="s">
-        <v>1452</v>
-      </c>
       <c r="C8" s="108" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="108" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A10" s="108" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C10" s="108" t="s">
         <v>1458</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="377" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B11" s="108" t="s">
         <v>1460</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="C11" s="108" t="s">
         <v>1461</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="261" x14ac:dyDescent="0.35">
       <c r="A12" s="108" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>1463</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A13" s="108" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B13" s="108" t="s">
         <v>1465</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="C13" s="117" t="s">
         <v>1466</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>1467</v>
       </c>
     </row>
   </sheetData>

--- a/2 четверть_2_Программист_old_new_Python.xlsx
+++ b/2 четверть_2_Программист_old_new_Python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C230DD-49B4-4FDF-8118-689D1C8D45D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3EDD09-6D30-4861-A78E-71D9ACF1D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Альбина 1-11" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1851">
   <si>
     <t>Основы языка Python</t>
   </si>
@@ -30612,6 +30612,90 @@
   <si>
     <t>Для работы
 https://core.telegram.org/bots/samples</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ассоциативные массивы. 
+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ключи всегда неизменяемые объекты. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 В словаре всегда существует только один ключ (по аналогии со списками, у которых может быть только один индекс)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user_4 = {
+   0: 'Иванов',
+   1: 'Иван',
+   2: 'Иванович',
+   3: 25
+}
+print(user_4[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)  # Иванов</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -31839,7 +31923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -32626,6 +32710,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -33952,8 +34039,8 @@
   </sheetPr>
   <dimension ref="A1:Z280"/>
   <sheetViews>
-    <sheetView topLeftCell="T91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z92" sqref="Z92"/>
+    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35109,8 +35196,8 @@
       <c r="L45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="12" t="s">
-        <v>196</v>
+      <c r="M45" s="264" t="s">
+        <v>1850</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>241</v>
@@ -39550,8 +39637,8 @@
   </sheetPr>
   <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView topLeftCell="A30" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G37" sqref="A37:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/2 четверть_2_Программист_old_new_Python.xlsx
+++ b/2 четверть_2_Программист_old_new_Python.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3EDD09-6D30-4861-A78E-71D9ACF1D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D1E219-D9C7-4E65-B37C-66B293B9891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Python Альбина 1-11" sheetId="1" r:id="rId1"/>
-    <sheet name="Python Сергей 1-6" sheetId="12" r:id="rId2"/>
-    <sheet name="pip" sheetId="7" r:id="rId3"/>
-    <sheet name="7" sheetId="4" r:id="rId4"/>
-    <sheet name="Ошибки в python" sheetId="9" r:id="rId5"/>
-    <sheet name="Декораторы в python" sheetId="11" r:id="rId6"/>
+    <sheet name="Пусто" sheetId="14" r:id="rId1"/>
+    <sheet name="Python Альбина 1-11" sheetId="1" r:id="rId2"/>
+    <sheet name="Python Сергей 1-6" sheetId="12" r:id="rId3"/>
+    <sheet name="PyMySQL" sheetId="15" r:id="rId4"/>
+    <sheet name="smtplib" sheetId="17" r:id="rId5"/>
+    <sheet name="Веб-парсинг" sheetId="19" r:id="rId6"/>
+    <sheet name="pip" sheetId="7" r:id="rId7"/>
+    <sheet name="Работа с файлами" sheetId="4" r:id="rId8"/>
+    <sheet name="Ошибки в python" sheetId="9" r:id="rId9"/>
+    <sheet name="Декораторы в python" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1896">
   <si>
     <t>Основы языка Python</t>
   </si>
@@ -30697,17 +30701,339 @@
       <t>)  # Иванов</t>
     </r>
   </si>
+  <si>
+    <t>`https://docs-python.ru/packages/biblioteka-python-telegram-bot-python/sozdanie-razgovorov-conversationhandler/</t>
+  </si>
+  <si>
+    <t>pip install PyMySQL</t>
+  </si>
+  <si>
+    <t>PyMySQL</t>
+  </si>
+  <si>
+    <t>Когда писалась эта книга, последней версией PyMySQL была 0.6.7, которая устанавливается с помощью pip следующим образом</t>
+  </si>
+  <si>
+    <t>import pymysql
+conn = pymysql.connect(host='127.0.0.1',
+unix_socket='/tmp/mysql.sock',
+user='root',
+passwd=None, db='mysql')
+cur = conn.cursor()
+cur.execute('USE scraping')
+cur.execute('SELECT * FROM pages WHERE id=1')
+print(cur.fetchone())
+cur.close()
+conn.close()</t>
+  </si>
+  <si>
+    <t>После установки библиотеки пакет PyMySQL должен стать доступным автоматически. 
+При работающем локальном сервере MySQL должен успешно выполниться следующий скрипт (не забудьте указать пароль пользователя root для
+вашей базы данных)</t>
+  </si>
+  <si>
+    <t>conn = pymysql.connect(host='127.0.0.1',
+unix_socket='/tmp/mysql.sock',
+user='root',
+passwd=None, db='mysql', charset='utf8')
+cur = conn.cursor()
+cur.execute('USE scraping')
+def store(title, content):
+cur.execute('INSERT INTO pages (title,
+content) VALUES '
+'("%s", "%s")', (title, content))
+cur.connection.commit()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cur.execute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('
+INSERT INTO pages (title, content) 
+VALUES '("%s", "%s")', (title, content)
+')
+cur.connection.commit()</t>
+    </r>
+  </si>
+  <si>
+    <t>Здесь следует отметить несколько моментов. Во-первых, в строку соединения с базой данных добавляется условие charset='utf8'. Так мы сообщаем соединению, что всю информацию в базу следует отправлять в формате UTF-8 (само
+собой разумеется, что БД уже должна быть настроена соответствующим образом).</t>
+  </si>
+  <si>
+    <t>Работа с текстом в формате Unicode при просмотре веб-страниц может оказаться непростой задачей. По умолчанию MySQL не поддерживает Unicode. К счастью, мы можем активировать эту функцию (только помните, что тогда увеличится размер базы данных). Поскольку в «Википедии» нам встретится множество колоритных символов, самое время сообщить базе, что ей придется иметь дело с текстом в
+формате Unicode:</t>
+  </si>
+  <si>
+    <t>ALTER DATABASE scraping CHARACTER SET = utf8mb4
+COLLATE = utf8mb4_unicode_ci;
+ALTER TABLE pages CONVERT TO CHARACTER SET
+utf8mb4 COLLATE utf8mb4_unicode_ci;
+ALTER TABLE pages CHANGE title title
+VARCHAR(200) CHARACTER SET utf8mb4
+COLLATE utf8mb4_unicode_ci;
+ALTER TABLE pages CHANGE content content
+VARCHAR(10000) CHARACTER SET utf8mb4
+COLLATE utf8mb4_unicode_ci;</t>
+  </si>
+  <si>
+    <t>Эти четыре строки изменяют кодировку, используемую в базе данных по умолчанию, для таблицы и обоих ее столбцов, с utf8mb4 (технически это тоже Unicode, но с печально известной ужасной поддержкой большинства символов
+Unicode) на utf8mb4_unicode_ci.</t>
+  </si>
+  <si>
+    <t>Работа с текстом в формате Unicode при просмотре веб-страниц</t>
+  </si>
+  <si>
+    <t>MySQL в Python</t>
+  </si>
+  <si>
+    <t>Подключение к MySQL через PyMySQL</t>
+  </si>
+  <si>
+    <t>`https://pymysql.readthedocs.io/en/latest/
+стр 177 книги Современный скрэпинг с помощью Python</t>
+  </si>
+  <si>
+    <t>smtplib</t>
+  </si>
+  <si>
+    <t>стр 192 книги Современный скрэпинг с помощью Python</t>
+  </si>
+  <si>
+    <t>import smtplib
+from email.mime.text import MIMEText
+msg = MIMEText('The body of the email is here')
+msg['Subject'] = 'An Email Alert'
+msg['From'] = 'ryan@pythonscraping.com'
+msg['To'] = 'webmaster@pythonscraping.com'
+s = smtplib.SMTP('localhost')
+s.send_message(msg)
+s.quit()</t>
+  </si>
+  <si>
+    <t>import smtplib</t>
+  </si>
+  <si>
+    <t>Python-модуль email содержит полезные функции форматирования для создания готовых к отправке пакетов электронной почты. Применяемый здесь объект MIMEText создает пустое электронное письмо, отформатированное для передачи по низкоуровневому протоколу MIME (Multipurpose Internet Mail Extensions, многоцелевые расширения почтовой интернет-службы), через который устанавливаются SMTP-соединения более высокого уровня. Объект MIMEText содержит адреса электронной почты, тело и заголовок, служащие в Python для создания правильно отформатированного электронного письма.</t>
+  </si>
+  <si>
+    <t>Python-модуль email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В следующих примерах кода предполагается, что SMTP-клиент используется локально. (Чтобы модифицировать этот код для удаленного SMTP-клиента, замените localhost адресом удаленного сервера.)
+</t>
+  </si>
+  <si>
+    <t>В Python есть два важных пакета для отправки электронной почты: smtplib и email.</t>
+  </si>
+  <si>
+    <t>smtplib и email</t>
+  </si>
+  <si>
+    <t>Пакет smtplib содержит информацию для обработки соединения с сервером. Как и при соединении с сервером MySQL, это соединение, будучи созданным и использованным, должно разрываться, чтобы не создавалось слишком большого
+количества соединений.</t>
+  </si>
+  <si>
+    <t>Пакет smtplib</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Этот скрипт раз в час проверяет сайт https://isitchristmas.com, главной функцией которого является вывод гигантского слова YES или NO, в зависимости от дня года. Если скрипт заметит на сайте что-либо отличное от NO, то отправит вам электронное письмо с предупреждением о наступлении Рождества.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Небольшой коммертарии о потенциале кода справа:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Несмотря на то что эта конкретная программа выглядит не
+намного более полезной, чем обычный настенный календарь, достаточно слегка ее изменить — и можно будет делать множество чрезвычайно нужных вещей. Она может отправлять по электронной почте сообщения о сбоях в работе сайта, неполадках при тестировании или даже информировать о появлении в магазине Amazon товара, который вы ожидаете, — ничего из этого настенный календарь делать не может.</t>
+    </r>
+  </si>
+  <si>
+    <t># Продолжение
+bs = BeautifulSoup(urlopen('https://isitchristmas.com/'), 'html.parser')
+while(bs.find('a',{'id':'answer'}).attrs['title'] == 'NO'):
+  print('It is not Christmas yet.')
+  time.sleep(3600)
+bs =BeautifulSoup(urlopen('https://isitchristmas.com/'), 'html.parser')
+sendMail('It\'s Christmas!','According to http://itischristmas.com, it is Christmas!')</t>
+  </si>
+  <si>
+    <t># Начало
+import smtplib
+from email.mime.text import MIMEText
+from bs4 import BeautifulSoup
+from urllib.request import urlopen
+import time
+def sendMail(subject, body):
+  msg = MIMEText(body)
+  msg['Subject'] = subject
+  msg['From'] ='christmas_alerts@pythonscraping.com'
+  msg['To'] = 'ryan@pythonscraping.com'
+  s = smtplib.SMTP('localhost')
+  s.send_message(msg)
+  s.quit()</t>
+  </si>
+  <si>
+    <t>Ссылки
+5 Joab Jackson. YouTube Scales MySQL with Go Code (http://bit.ly/1LWVmc8), PCWorld,
+December 15, 2012.
+6 Jeremy Cole and Davi Arnaut. MySQL at Twitter (http://bit.ly/1KHDKns), The Twitter
+Engineering Blog, April 9, 2012.
+7 MySQL and Database Engineering: Mark Callaghan (http://on.fb.me/1RFMqvw),
+Facebook Engineering, March 4, 2012.
+8 Дюбуа П. MySQL. Сборник рецептов. — СПб.: Символ-Плюс, 2016.</t>
+  </si>
+  <si>
+    <t>Парсинг документов</t>
+  </si>
+  <si>
+    <t>Чтение документов</t>
+  </si>
+  <si>
+    <t>стр 198 книги Современный скрэпинг с помощью Python</t>
+  </si>
+  <si>
+    <t>Кодировка документов</t>
+  </si>
+  <si>
+    <t>Кодировка документа указывает приложению — будь то
+операционная система компьютера или написанный вами код
+на Python, — как следует читать этот документ. Узнать
+кодировку обычно можно из расширения файла, хотя оно не
+обязательно соответствует кодировке. Я могу, например,
+сохранить файл myImage.jpg как myImage.txt, и проблем не
+возникнет — по крайней мере до тех пор, пока я не попытаюсь
+открыть его в текстовом редакторе. К счастью, подобные
+ситуации встречаются редко; как правило, достаточно знать
+расширение файла, в котором хранится документ, чтобы
+прочитать его правильно.</t>
+  </si>
+  <si>
+    <t>В своей основе любой документ содержит только нули и
+единицы. Затем вступают в действие алгоритмы кодирования.
+Они определяют такие вещи, как «сколько битов приходится на
+один символ» или «сколько битов занимает цвет пиксела» (в
+случае файлов с изображениями). Далее может подключаться
+уровень сжатия или некий алгоритм сокращения занимаемого
+места в памяти, как в случае с PNG-файлами.</t>
+  </si>
+  <si>
+    <t>Поначалу перспектива иметь дело с файлами, не
+относящимися к формату HTML, может выглядеть пугающе,
+однако будьте уверены: при подключении соответствующей
+библиотеки Python располагает всеми необходимыми
+средствами для работы с любым форматом информации,
+который вам попадется. Единственное различие между
+файлами с текстом, видео и изображениями состоит в том, как
+интерпретируются их нули и единицы. В этой главе мы
+рассмотрим следующие часто встречающиеся типы файлов:
+текст, CSV, PDF и документы Word.</t>
+  </si>
+  <si>
+    <t>from urllib.request import urlopen
+textPage = urlopen('http://www.pythonscraping.com/pages/warandpeace/chapter1.txt')
+print(textPage.read())</t>
+  </si>
+  <si>
+    <t>Для большинства простейших текстовых документов, таких как учебный файл, расположенный по адресу http://www.pythonscraping.com/pages/warandpeace/chapter1.txt, можно использовать следующий метод:</t>
+  </si>
+  <si>
+    <t>Обычно, получая страницу с помощью urlopen, мы
+превращаем ее в объект BeautifulSoup, чтобы выполнить
+синтаксический анализ HTML-кода. В данном случае мы можем
+прочитать страницу напрямую. Мы могли бы превратить ее в
+объект BeautifulSoup, однако это было бы нерационально: здесь
+нет HTML-разметки, которую стоило бы анализировать,
+поэтому библиотека будет бесполезной. Прочитав текстовый
+файл как строку, мы можем лишь проанализировать его
+аналогично любой другой строке, прочитанной в Python.
+Правда, здесь не получится использовать HTML-теги в качестве
+контекстных подсказок, указывающих на то, какой текст нам
+действительно нужен, а какой можно отбросить. Это может
+стать проблемой, если из текстовых файлов требуется извлечь
+лишь определенную информацию.</t>
+  </si>
+  <si>
+    <t>Чтеник txt файлов</t>
+  </si>
+  <si>
+    <t>продолжение после стр 198 книги Современный скрэпинг с помощью Python</t>
+  </si>
+  <si>
+    <t>Сбор данных из форм и проверка
+авторизации</t>
+  </si>
+  <si>
+    <t>стр 273 книги Современный скрэпинг с помощью Python</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -31921,9 +32247,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -31946,49 +32272,49 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -31997,70 +32323,88 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="73" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -32069,55 +32413,37 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -32126,41 +32452,41 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32169,43 +32495,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="82" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="85" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="90" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="87" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32214,91 +32540,91 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="85" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="82" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32307,7 +32633,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32325,7 +32651,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32343,124 +32669,121 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="95" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="98" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32475,28 +32798,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="95" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="98" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32505,10 +32828,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32535,73 +32858,73 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32616,19 +32939,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="99" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="102" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="98" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="101" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32661,22 +32984,22 @@
     <xf numFmtId="49" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="68" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="71" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -32688,19 +33011,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="70" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="73" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -32709,7 +33047,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -34033,14 +34383,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BB4CAD-F02B-45E0-AC92-77ED475E6785}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y80"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="62.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="69"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C3" s="266" t="s">
+        <v>1853</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F25" s="71"/>
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="77"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A53" s="123"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="64"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="64"/>
+      <c r="U68" s="64"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
+      <c r="X68" s="64"/>
+      <c r="Y68" s="64"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A69" s="124"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+      <c r="U70" s="64"/>
+      <c r="V70" s="64"/>
+      <c r="W70" s="64"/>
+      <c r="X70" s="64"/>
+      <c r="Y70" s="64"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="64"/>
+      <c r="Y72" s="64"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B74" s="105"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+      <c r="S76" s="64"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="64"/>
+      <c r="W76" s="64"/>
+      <c r="X76" s="64"/>
+      <c r="Y76" s="64"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G77" s="1"/>
+      <c r="H77" s="101"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G78" s="1"/>
+      <c r="H78" s="101"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G79" s="1"/>
+      <c r="H79" s="101"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+      <c r="H80" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89284B07-4C64-470D-8EC3-3CD3F518146E}">
+  <dimension ref="A2:U13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" style="108" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="108" customWidth="1"/>
+    <col min="3" max="3" width="56.453125" style="108" customWidth="1"/>
+    <col min="4" max="4" width="44.90625" style="108" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="67"/>
+    <col min="6" max="6" width="58.81640625" style="108" customWidth="1"/>
+    <col min="7" max="7" width="35" style="108" customWidth="1"/>
+    <col min="8" max="8" width="43.1796875" style="108" customWidth="1"/>
+    <col min="9" max="9" width="56.7265625" style="108" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="67"/>
+    <col min="11" max="11" width="32.36328125" style="108" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" style="108" customWidth="1"/>
+    <col min="13" max="13" width="62.36328125" style="108" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="108" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="67" customWidth="1"/>
+    <col min="16" max="16" width="15.36328125" style="108" customWidth="1"/>
+    <col min="17" max="17" width="44" style="108" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" style="108"/>
+    <col min="20" max="20" width="12.54296875" style="67" customWidth="1"/>
+    <col min="21" max="21" width="61.453125" style="108" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="108"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="E3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="T3" s="67"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="115" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="108" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="108" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="108" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="108" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
+      <c r="A9" s="108" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="108" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="377" x14ac:dyDescent="0.35">
+      <c r="A11" s="108" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="261" x14ac:dyDescent="0.35">
+      <c r="A12" s="108" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="108" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{E6D54D42-DBA8-4B1E-83F4-818693E0F904}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A54" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35196,7 +37038,7 @@
       <c r="L45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="264" t="s">
+      <c r="M45" s="263" t="s">
         <v>1850</v>
       </c>
       <c r="P45" s="2" t="s">
@@ -35554,7 +37396,7 @@
       <c r="G61" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="265" t="s">
         <v>364</v>
       </c>
       <c r="L61" s="12"/>
@@ -36165,7 +38007,7 @@
       <c r="X93" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="Y93" s="263" t="s">
+      <c r="Y93" s="262" t="s">
         <v>1848</v>
       </c>
       <c r="Z93" s="19" t="s">
@@ -36235,7 +38077,7 @@
     </row>
     <row r="96" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="D96" s="2"/>
-      <c r="F96" s="262" t="s">
+      <c r="F96" s="261" t="s">
         <v>433</v>
       </c>
       <c r="G96" s="42" t="s">
@@ -37561,7 +39403,7 @@
       <c r="Q178" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="R178" s="261" t="s">
+      <c r="R178" s="260" t="s">
         <v>1846</v>
       </c>
       <c r="S178" s="2"/>
@@ -39081,7 +40923,7 @@
       <c r="G255" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="H255" s="214" t="s">
+      <c r="H255" s="213" t="s">
         <v>1254</v>
       </c>
       <c r="I255" s="81" t="s">
@@ -39157,7 +40999,7 @@
       <c r="F257" s="87" t="s">
         <v>1688</v>
       </c>
-      <c r="H257" s="214" t="s">
+      <c r="H257" s="213" t="s">
         <v>1690</v>
       </c>
       <c r="I257" s="2" t="s">
@@ -39192,7 +41034,7 @@
       <c r="F258" s="87" t="s">
         <v>1689</v>
       </c>
-      <c r="H258" s="214" t="s">
+      <c r="H258" s="213" t="s">
         <v>1691</v>
       </c>
       <c r="I258" s="2" t="s">
@@ -39217,7 +41059,7 @@
       <c r="G259" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="H259" s="214" t="s">
+      <c r="H259" s="213" t="s">
         <v>1273</v>
       </c>
       <c r="I259" s="2" t="s">
@@ -39630,15 +41472,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2ADE5-9A6F-4274-9C48-F960B495367E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G37" sqref="A37:G38"/>
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41297,7 +43139,7 @@
       <c r="A80" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="C80" s="168" t="s">
+      <c r="C80" s="167" t="s">
         <v>1538</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -41312,7 +43154,7 @@
       <c r="H80" s="162" t="s">
         <v>358</v>
       </c>
-      <c r="I80" s="167" t="s">
+      <c r="I80" s="264" t="s">
         <v>802</v>
       </c>
       <c r="L80" s="12"/>
@@ -41325,7 +43167,7 @@
       <c r="A81" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="C81" s="168" t="s">
+      <c r="C81" s="167" t="s">
         <v>1601</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -41369,7 +43211,7 @@
       <c r="G83" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="H83" s="215" t="s">
+      <c r="H83" s="214" t="s">
         <v>1697</v>
       </c>
       <c r="I83" s="140"/>
@@ -41473,7 +43315,7 @@
       <c r="B91" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="C91" s="169" t="s">
+      <c r="C91" s="168" t="s">
         <v>1549</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -41523,13 +43365,13 @@
       <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A94" s="172" t="s">
+      <c r="A94" s="171" t="s">
         <v>1553</v>
       </c>
-      <c r="B94" s="174" t="s">
+      <c r="B94" s="173" t="s">
         <v>1561</v>
       </c>
-      <c r="C94" s="170" t="s">
+      <c r="C94" s="169" t="s">
         <v>1558</v>
       </c>
       <c r="D94" s="130"/>
@@ -41548,7 +43390,7 @@
       <c r="B95" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="C95" s="168" t="s">
+      <c r="C95" s="167" t="s">
         <v>1545</v>
       </c>
       <c r="D95" s="132" t="s">
@@ -41565,11 +43407,11 @@
       <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="173" t="s">
+      <c r="A96" s="172" t="s">
         <v>1554</v>
       </c>
       <c r="B96" s="134"/>
-      <c r="C96" s="171" t="s">
+      <c r="C96" s="170" t="s">
         <v>1548</v>
       </c>
       <c r="D96" s="142"/>
@@ -41584,13 +43426,13 @@
       <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="172" t="s">
+      <c r="A97" s="171" t="s">
         <v>1555</v>
       </c>
-      <c r="B97" s="174" t="s">
+      <c r="B97" s="173" t="s">
         <v>1560</v>
       </c>
-      <c r="C97" s="170" t="s">
+      <c r="C97" s="169" t="s">
         <v>1544</v>
       </c>
       <c r="D97" s="130"/>
@@ -41605,13 +43447,13 @@
       <c r="V97" s="2"/>
     </row>
     <row r="98" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A98" s="172" t="s">
+      <c r="A98" s="171" t="s">
         <v>1556</v>
       </c>
-      <c r="B98" s="174" t="s">
+      <c r="B98" s="173" t="s">
         <v>1559</v>
       </c>
-      <c r="C98" s="170" t="s">
+      <c r="C98" s="169" t="s">
         <v>1557</v>
       </c>
       <c r="D98" s="130"/>
@@ -41651,7 +43493,7 @@
       <c r="B100" s="55" t="s">
         <v>1580</v>
       </c>
-      <c r="C100" s="168" t="s">
+      <c r="C100" s="167" t="s">
         <v>1585</v>
       </c>
       <c r="D100" s="132" t="s">
@@ -41667,13 +43509,13 @@
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="175" t="s">
+      <c r="A101" s="174" t="s">
         <v>1552</v>
       </c>
       <c r="B101" s="55" t="s">
         <v>1580</v>
       </c>
-      <c r="C101" s="168" t="s">
+      <c r="C101" s="167" t="s">
         <v>1551</v>
       </c>
       <c r="D101" s="132"/>
@@ -41687,13 +43529,13 @@
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="173" t="s">
+      <c r="A102" s="172" t="s">
         <v>1592</v>
       </c>
-      <c r="B102" s="180" t="s">
+      <c r="B102" s="179" t="s">
         <v>1593</v>
       </c>
-      <c r="C102" s="171" t="s">
+      <c r="C102" s="170" t="s">
         <v>1590</v>
       </c>
       <c r="D102" s="142" t="s">
@@ -41709,10 +43551,10 @@
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="172" t="s">
+      <c r="A103" s="171" t="s">
         <v>1563</v>
       </c>
-      <c r="B103" s="174" t="s">
+      <c r="B103" s="173" t="s">
         <v>1582</v>
       </c>
       <c r="C103" s="128" t="s">
@@ -41730,14 +43572,14 @@
       <c r="S103" s="2"/>
     </row>
     <row r="104" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="181" t="s">
+      <c r="A104" s="180" t="s">
         <v>1564</v>
       </c>
-      <c r="B104" s="176"/>
-      <c r="C104" s="177" t="s">
+      <c r="B104" s="175"/>
+      <c r="C104" s="176" t="s">
         <v>1562</v>
       </c>
-      <c r="D104" s="182" t="s">
+      <c r="D104" s="181" t="s">
         <v>1573</v>
       </c>
       <c r="F104" s="42"/>
@@ -41750,16 +43592,16 @@
       <c r="S104" s="2"/>
     </row>
     <row r="105" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="181" t="s">
+      <c r="A105" s="180" t="s">
         <v>1595</v>
       </c>
-      <c r="B105" s="189" t="s">
+      <c r="B105" s="188" t="s">
         <v>1594</v>
       </c>
-      <c r="C105" s="177" t="s">
+      <c r="C105" s="176" t="s">
         <v>1596</v>
       </c>
-      <c r="D105" s="182"/>
+      <c r="D105" s="181"/>
       <c r="F105" s="42"/>
       <c r="H105" s="14"/>
       <c r="I105" s="2"/>
@@ -41770,16 +43612,16 @@
       <c r="S105" s="2"/>
     </row>
     <row r="106" spans="1:22" ht="197.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="181" t="s">
+      <c r="A106" s="180" t="s">
         <v>1099</v>
       </c>
-      <c r="B106" s="189" t="s">
+      <c r="B106" s="188" t="s">
         <v>1598</v>
       </c>
-      <c r="C106" s="177" t="s">
+      <c r="C106" s="176" t="s">
         <v>1599</v>
       </c>
-      <c r="D106" s="182"/>
+      <c r="D106" s="181"/>
       <c r="F106" s="42"/>
       <c r="H106" s="14"/>
       <c r="I106" s="2"/>
@@ -41790,16 +43632,16 @@
       <c r="S106" s="2"/>
     </row>
     <row r="107" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="183" t="s">
+      <c r="A107" s="182" t="s">
         <v>1565</v>
       </c>
-      <c r="B107" s="179" t="s">
+      <c r="B107" s="178" t="s">
         <v>1581</v>
       </c>
-      <c r="C107" s="178" t="s">
+      <c r="C107" s="177" t="s">
         <v>1566</v>
       </c>
-      <c r="D107" s="184" t="s">
+      <c r="D107" s="183" t="s">
         <v>1572</v>
       </c>
       <c r="F107" s="42"/>
@@ -41812,16 +43654,16 @@
       <c r="S107" s="2"/>
     </row>
     <row r="108" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="187" t="s">
+      <c r="A108" s="186" t="s">
         <v>1569</v>
       </c>
-      <c r="B108" s="179" t="s">
+      <c r="B108" s="178" t="s">
         <v>1583</v>
       </c>
-      <c r="C108" s="178" t="s">
+      <c r="C108" s="177" t="s">
         <v>1570</v>
       </c>
-      <c r="D108" s="184" t="s">
+      <c r="D108" s="183" t="s">
         <v>1571</v>
       </c>
       <c r="F108" s="42"/>
@@ -41834,16 +43676,16 @@
       <c r="S108" s="2"/>
     </row>
     <row r="109" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A109" s="187" t="s">
+      <c r="A109" s="186" t="s">
         <v>1568</v>
       </c>
-      <c r="B109" s="185" t="s">
+      <c r="B109" s="184" t="s">
         <v>1579</v>
       </c>
-      <c r="C109" s="186" t="s">
+      <c r="C109" s="185" t="s">
         <v>1576</v>
       </c>
-      <c r="D109" s="184" t="s">
+      <c r="D109" s="183" t="s">
         <v>1567</v>
       </c>
       <c r="F109" s="42"/>
@@ -41856,10 +43698,10 @@
       <c r="S109" s="2"/>
     </row>
     <row r="110" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="173" t="s">
+      <c r="A110" s="172" t="s">
         <v>1578</v>
       </c>
-      <c r="B110" s="188" t="s">
+      <c r="B110" s="187" t="s">
         <v>1584</v>
       </c>
       <c r="C110" s="134" t="s">
@@ -41937,7 +43779,7 @@
       <c r="V114" s="2"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A115" s="240" t="s">
+      <c r="A115" s="239" t="s">
         <v>1615</v>
       </c>
       <c r="B115" s="149"/>
@@ -41946,13 +43788,13 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="192" t="s">
+      <c r="A116" s="191" t="s">
         <v>1603</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="C116" s="205" t="s">
+      <c r="C116" s="204" t="s">
         <v>1605</v>
       </c>
       <c r="D116" s="132" t="s">
@@ -41961,7 +43803,7 @@
       <c r="F116" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="H116" s="191" t="s">
+      <c r="H116" s="190" t="s">
         <v>1608</v>
       </c>
       <c r="I116" s="2" t="s">
@@ -41974,16 +43816,16 @@
       <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="193" t="s">
+      <c r="A117" s="192" t="s">
         <v>1617</v>
       </c>
-      <c r="C117" s="190"/>
+      <c r="C117" s="189"/>
       <c r="D117" s="132"/>
       <c r="F117" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="G117" s="1"/>
-      <c r="H117" s="191" t="s">
+      <c r="H117" s="190" t="s">
         <v>1610</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -41996,7 +43838,7 @@
       <c r="V117" s="2"/>
     </row>
     <row r="118" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="194" t="s">
+      <c r="A118" s="193" t="s">
         <v>1369</v>
       </c>
       <c r="B118" s="1"/>
@@ -42008,7 +43850,7 @@
         <v>1613</v>
       </c>
       <c r="G118" s="1"/>
-      <c r="H118" s="191" t="s">
+      <c r="H118" s="190" t="s">
         <v>1614</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -42021,11 +43863,11 @@
       <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:23" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="194" t="s">
+      <c r="A119" s="193" t="s">
         <v>1371</v>
       </c>
       <c r="B119" s="108"/>
-      <c r="C119" s="195" t="s">
+      <c r="C119" s="194" t="s">
         <v>1370</v>
       </c>
       <c r="D119" s="132"/>
@@ -42039,7 +43881,7 @@
       <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:23" ht="87" x14ac:dyDescent="0.35">
-      <c r="A120" s="194" t="s">
+      <c r="A120" s="193" t="s">
         <v>1367</v>
       </c>
       <c r="B120" s="108"/>
@@ -42047,11 +43889,11 @@
         <v>302</v>
       </c>
       <c r="D120" s="140"/>
-      <c r="F120" s="204" t="s">
+      <c r="F120" s="203" t="s">
         <v>1755</v>
       </c>
       <c r="G120" s="149"/>
-      <c r="H120" s="218" t="s">
+      <c r="H120" s="217" t="s">
         <v>1754</v>
       </c>
       <c r="I120" s="138"/>
@@ -42063,13 +43905,13 @@
       <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="194" t="s">
+      <c r="A121" s="193" t="s">
         <v>1618</v>
       </c>
       <c r="B121" s="108" t="s">
         <v>1621</v>
       </c>
-      <c r="C121" s="196" t="s">
+      <c r="C121" s="195" t="s">
         <v>305</v>
       </c>
       <c r="D121" s="140"/>
@@ -42079,7 +43921,7 @@
       <c r="G121" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="H121" s="217" t="s">
+      <c r="H121" s="216" t="s">
         <v>1756</v>
       </c>
       <c r="I121" s="140" t="s">
@@ -42093,10 +43935,10 @@
       <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:23" ht="58" x14ac:dyDescent="0.35">
-      <c r="A122" s="197" t="s">
+      <c r="A122" s="196" t="s">
         <v>1619</v>
       </c>
-      <c r="B122" s="195" t="s">
+      <c r="B122" s="194" t="s">
         <v>1620</v>
       </c>
       <c r="C122" s="1"/>
@@ -42128,10 +43970,10 @@
       <c r="F123" s="139" t="s">
         <v>1758</v>
       </c>
-      <c r="G123" s="211" t="s">
+      <c r="G123" s="210" t="s">
         <v>1760</v>
       </c>
-      <c r="H123" s="217" t="s">
+      <c r="H123" s="216" t="s">
         <v>1759</v>
       </c>
       <c r="I123" s="140"/>
@@ -42143,7 +43985,7 @@
       <c r="W123" s="2"/>
     </row>
     <row r="124" spans="1:23" ht="116" x14ac:dyDescent="0.35">
-      <c r="A124" s="204" t="s">
+      <c r="A124" s="203" t="s">
         <v>1630</v>
       </c>
       <c r="B124" s="128" t="s">
@@ -42153,16 +43995,16 @@
       <c r="D124" s="130" t="s">
         <v>1616</v>
       </c>
-      <c r="F124" s="223" t="s">
+      <c r="F124" s="222" t="s">
         <v>1765</v>
       </c>
-      <c r="G124" s="211" t="s">
+      <c r="G124" s="210" t="s">
         <v>1770</v>
       </c>
-      <c r="H124" s="217" t="s">
+      <c r="H124" s="216" t="s">
         <v>1767</v>
       </c>
-      <c r="I124" s="224" t="s">
+      <c r="I124" s="223" t="s">
         <v>1776</v>
       </c>
       <c r="L124" s="12"/>
@@ -42175,16 +44017,16 @@
         <v>1623</v>
       </c>
       <c r="D125" s="132"/>
-      <c r="F125" s="219" t="s">
+      <c r="F125" s="218" t="s">
         <v>1766</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="H125" s="217" t="s">
+      <c r="H125" s="216" t="s">
         <v>1768</v>
       </c>
-      <c r="I125" s="224" t="s">
+      <c r="I125" s="223" t="s">
         <v>1777</v>
       </c>
       <c r="L125" s="12"/>
@@ -42203,10 +44045,10 @@
       <c r="F126" s="139" t="s">
         <v>1769</v>
       </c>
-      <c r="G126" s="211" t="s">
+      <c r="G126" s="210" t="s">
         <v>1771</v>
       </c>
-      <c r="H126" s="217" t="s">
+      <c r="H126" s="216" t="s">
         <v>1773</v>
       </c>
       <c r="I126" s="140"/>
@@ -42226,10 +44068,10 @@
       <c r="F127" s="139" t="s">
         <v>1774</v>
       </c>
-      <c r="G127" s="211" t="s">
+      <c r="G127" s="210" t="s">
         <v>1782</v>
       </c>
-      <c r="H127" s="217" t="s">
+      <c r="H127" s="216" t="s">
         <v>1775</v>
       </c>
       <c r="I127" s="132" t="s">
@@ -42238,42 +44080,44 @@
       <c r="L127" s="12"/>
     </row>
     <row r="128" spans="1:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="241" t="s">
+      <c r="A128" s="240" t="s">
         <v>1629</v>
       </c>
-      <c r="B128" s="242"/>
-      <c r="C128" s="242"/>
-      <c r="D128" s="243" t="s">
+      <c r="B128" s="241"/>
+      <c r="C128" s="241"/>
+      <c r="D128" s="242" t="s">
         <v>1633</v>
       </c>
       <c r="F128" s="152" t="s">
         <v>1780</v>
       </c>
-      <c r="G128" s="227" t="s">
+      <c r="G128" s="226" t="s">
         <v>1783</v>
       </c>
-      <c r="H128" s="225" t="s">
+      <c r="H128" s="224" t="s">
         <v>1781</v>
       </c>
-      <c r="I128" s="226" t="s">
+      <c r="I128" s="225" t="s">
         <v>1779</v>
       </c>
       <c r="L128" s="12"/>
     </row>
     <row r="129" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="244" t="s">
+      <c r="A129" s="243" t="s">
         <v>1634</v>
       </c>
-      <c r="B129" s="245"/>
-      <c r="C129" s="245" t="s">
+      <c r="B129" s="244"/>
+      <c r="C129" s="244" t="s">
         <v>1635</v>
       </c>
-      <c r="D129" s="246"/>
-      <c r="F129" s="204" t="s">
+      <c r="D129" s="245"/>
+      <c r="F129" s="203" t="s">
         <v>1785</v>
       </c>
-      <c r="G129" s="247"/>
-      <c r="H129" s="248" t="s">
+      <c r="G129" s="246" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H129" s="247" t="s">
         <v>1787</v>
       </c>
       <c r="I129" s="130" t="s">
@@ -42282,19 +44126,19 @@
       <c r="L129" s="12"/>
     </row>
     <row r="130" spans="1:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="A130" s="244" t="s">
+      <c r="A130" s="243" t="s">
         <v>1636</v>
       </c>
-      <c r="B130" s="245"/>
-      <c r="C130" s="245" t="s">
+      <c r="B130" s="244"/>
+      <c r="C130" s="244" t="s">
         <v>1637</v>
       </c>
-      <c r="D130" s="246"/>
-      <c r="F130" s="249"/>
+      <c r="D130" s="245"/>
+      <c r="F130" s="248"/>
       <c r="G130" s="55" t="s">
         <v>1790</v>
       </c>
-      <c r="H130" s="217" t="s">
+      <c r="H130" s="216" t="s">
         <v>1788</v>
       </c>
       <c r="I130" s="132" t="s">
@@ -42303,39 +44147,39 @@
       <c r="L130" s="12"/>
     </row>
     <row r="131" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A131" s="228" t="s">
+      <c r="A131" s="227" t="s">
         <v>1643</v>
       </c>
-      <c r="B131" s="206" t="s">
+      <c r="B131" s="205" t="s">
         <v>1639</v>
       </c>
-      <c r="C131" s="207" t="s">
+      <c r="C131" s="206" t="s">
         <v>1638</v>
       </c>
-      <c r="D131" s="229"/>
+      <c r="D131" s="228"/>
       <c r="F131" s="139" t="s">
         <v>1792</v>
       </c>
       <c r="G131" s="55" t="s">
         <v>1793</v>
       </c>
-      <c r="H131" s="217" t="s">
+      <c r="H131" s="216" t="s">
         <v>1791</v>
       </c>
       <c r="I131" s="132"/>
       <c r="L131" s="12"/>
     </row>
     <row r="132" spans="1:12" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="230" t="s">
+      <c r="A132" s="229" t="s">
         <v>1642</v>
       </c>
-      <c r="C132" s="205" t="s">
+      <c r="C132" s="204" t="s">
         <v>1640</v>
       </c>
       <c r="D132" s="132"/>
       <c r="F132" s="152"/>
       <c r="G132" s="134"/>
-      <c r="H132" s="225" t="s">
+      <c r="H132" s="224" t="s">
         <v>1794</v>
       </c>
       <c r="I132" s="142"/>
@@ -42343,7 +44187,7 @@
     </row>
     <row r="133" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="131"/>
-      <c r="C133" s="205" t="s">
+      <c r="C133" s="204" t="s">
         <v>1641</v>
       </c>
       <c r="D133" s="140"/>
@@ -42357,7 +44201,7 @@
       <c r="A134" s="139" t="s">
         <v>1644</v>
       </c>
-      <c r="B134" s="211" t="s">
+      <c r="B134" s="210" t="s">
         <v>1673</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -42368,43 +44212,43 @@
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="215"/>
+      <c r="H134" s="214"/>
       <c r="L134" s="12"/>
     </row>
     <row r="135" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="231" t="s">
+      <c r="A135" s="230" t="s">
         <v>1648</v>
       </c>
-      <c r="B135" s="208" t="s">
+      <c r="B135" s="207" t="s">
         <v>1646</v>
       </c>
-      <c r="C135" s="209" t="s">
+      <c r="C135" s="208" t="s">
         <v>1665</v>
       </c>
-      <c r="D135" s="182" t="s">
+      <c r="D135" s="181" t="s">
         <v>1647</v>
       </c>
       <c r="G135" s="1"/>
       <c r="L135" s="12"/>
     </row>
     <row r="136" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="232" t="s">
+      <c r="A136" s="231" t="s">
         <v>1649</v>
       </c>
-      <c r="B136" s="212" t="s">
+      <c r="B136" s="211" t="s">
         <v>1672</v>
       </c>
-      <c r="C136" s="210" t="s">
+      <c r="C136" s="209" t="s">
         <v>1650</v>
       </c>
-      <c r="D136" s="233" t="s">
+      <c r="D136" s="232" t="s">
         <v>1683</v>
       </c>
       <c r="G136" s="1"/>
       <c r="L136" s="12"/>
     </row>
     <row r="137" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="234" t="s">
+      <c r="A137" s="233" t="s">
         <v>1654</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -42413,14 +44257,14 @@
       <c r="C137" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="D137" s="235" t="s">
+      <c r="D137" s="234" t="s">
         <v>1670</v>
       </c>
       <c r="G137" s="1"/>
       <c r="L137" s="12"/>
     </row>
     <row r="138" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="236" t="s">
+      <c r="A138" s="235" t="s">
         <v>1653</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -42429,7 +44273,7 @@
       <c r="C138" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="D138" s="235" t="s">
+      <c r="D138" s="234" t="s">
         <v>1671</v>
       </c>
       <c r="G138" s="1"/>
@@ -42450,32 +44294,32 @@
       <c r="L139" s="12"/>
     </row>
     <row r="140" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A140" s="237" t="s">
+      <c r="A140" s="236" t="s">
         <v>1663</v>
       </c>
-      <c r="B140" s="213" t="s">
+      <c r="B140" s="212" t="s">
         <v>1674</v>
       </c>
-      <c r="C140" s="176" t="s">
+      <c r="C140" s="175" t="s">
         <v>1664</v>
       </c>
-      <c r="D140" s="182" t="s">
+      <c r="D140" s="181" t="s">
         <v>1668</v>
       </c>
       <c r="G140" s="1"/>
       <c r="L140" s="12"/>
     </row>
     <row r="141" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="238" t="s">
+      <c r="A141" s="237" t="s">
         <v>1660</v>
       </c>
-      <c r="B141" s="220" t="s">
+      <c r="B141" s="219" t="s">
         <v>1661</v>
       </c>
-      <c r="C141" s="206" t="s">
+      <c r="C141" s="205" t="s">
         <v>1662</v>
       </c>
-      <c r="D141" s="239" t="s">
+      <c r="D141" s="238" t="s">
         <v>1682</v>
       </c>
       <c r="G141" s="1"/>
@@ -42488,7 +44332,7 @@
       <c r="B142" s="128" t="s">
         <v>1678</v>
       </c>
-      <c r="C142" s="218" t="s">
+      <c r="C142" s="217" t="s">
         <v>1676</v>
       </c>
       <c r="D142" s="130" t="s">
@@ -42504,7 +44348,7 @@
       <c r="B143" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="C143" s="221" t="s">
+      <c r="C143" s="220" t="s">
         <v>1677</v>
       </c>
       <c r="D143" s="132" t="s">
@@ -42528,7 +44372,7 @@
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="217"/>
+      <c r="H144" s="216"/>
       <c r="L144" s="12"/>
     </row>
     <row r="145" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -42538,7 +44382,7 @@
       <c r="B145" s="147" t="s">
         <v>1675</v>
       </c>
-      <c r="C145" s="222" t="s">
+      <c r="C145" s="221" t="s">
         <v>1694</v>
       </c>
       <c r="D145" s="136" t="s">
@@ -42546,7 +44390,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="217"/>
+      <c r="H145" s="216"/>
       <c r="L145" s="12"/>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.35">
@@ -42555,7 +44399,7 @@
       <c r="D146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="217"/>
+      <c r="H146" s="216"/>
       <c r="L146" s="12"/>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.35">
@@ -42564,7 +44408,7 @@
       <c r="D147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="217"/>
+      <c r="H147" s="216"/>
       <c r="L147" s="12"/>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.35">
@@ -42573,7 +44417,7 @@
       <c r="D148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="217"/>
+      <c r="H148" s="216"/>
       <c r="L148" s="12"/>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.35">
@@ -42582,7 +44426,7 @@
       <c r="D149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="215"/>
+      <c r="H149" s="214"/>
       <c r="L149" s="12"/>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.35">
@@ -42697,7 +44541,7 @@
       <c r="B158" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C158" s="216" t="s">
+      <c r="C158" s="215" t="s">
         <v>1704</v>
       </c>
       <c r="D158" s="2"/>
@@ -42712,7 +44556,7 @@
       <c r="B159" s="128" t="s">
         <v>1707</v>
       </c>
-      <c r="C159" s="218" t="s">
+      <c r="C159" s="217" t="s">
         <v>1710</v>
       </c>
       <c r="D159" s="130"/>
@@ -42774,10 +44618,10 @@
       <c r="A164" s="139" t="s">
         <v>1719</v>
       </c>
-      <c r="B164" s="217" t="s">
+      <c r="B164" s="216" t="s">
         <v>1721</v>
       </c>
-      <c r="C164" s="259" t="s">
+      <c r="C164" s="258" t="s">
         <v>1845</v>
       </c>
       <c r="D164" s="132"/>
@@ -42789,7 +44633,7 @@
       <c r="A165" s="139" t="s">
         <v>1720</v>
       </c>
-      <c r="C165" s="259" t="s">
+      <c r="C165" s="258" t="s">
         <v>1843</v>
       </c>
       <c r="D165" s="132"/>
@@ -42802,7 +44646,7 @@
         <v>1722</v>
       </c>
       <c r="B166" s="134"/>
-      <c r="C166" s="260" t="s">
+      <c r="C166" s="259" t="s">
         <v>1844</v>
       </c>
       <c r="D166" s="142" t="s">
@@ -42829,10 +44673,10 @@
       <c r="A168" s="139" t="s">
         <v>1726</v>
       </c>
-      <c r="B168" s="217" t="s">
+      <c r="B168" s="216" t="s">
         <v>1727</v>
       </c>
-      <c r="C168" s="217" t="s">
+      <c r="C168" s="216" t="s">
         <v>1733</v>
       </c>
       <c r="D168" s="132" t="s">
@@ -42843,10 +44687,10 @@
       <c r="H168" s="2"/>
     </row>
     <row r="169" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A169" s="219" t="s">
+      <c r="A169" s="218" t="s">
         <v>1736</v>
       </c>
-      <c r="C169" s="217" t="s">
+      <c r="C169" s="216" t="s">
         <v>1735</v>
       </c>
       <c r="D169" s="132"/>
@@ -42858,10 +44702,10 @@
       <c r="A170" s="139" t="s">
         <v>1729</v>
       </c>
-      <c r="B170" s="217" t="s">
+      <c r="B170" s="216" t="s">
         <v>1730</v>
       </c>
-      <c r="C170" s="217" t="s">
+      <c r="C170" s="216" t="s">
         <v>1734</v>
       </c>
       <c r="D170" s="132"/>
@@ -42898,7 +44742,7 @@
       <c r="A173" s="139" t="s">
         <v>1739</v>
       </c>
-      <c r="C173" s="217" t="s">
+      <c r="C173" s="216" t="s">
         <v>1743</v>
       </c>
       <c r="D173" s="132"/>
@@ -43003,7 +44847,7 @@
       <c r="A182" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="169" t="s">
+      <c r="C182" s="168" t="s">
         <v>1831</v>
       </c>
       <c r="F182" s="125" t="s">
@@ -43026,10 +44870,10 @@
       <c r="A183" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="B183" s="257" t="s">
+      <c r="B183" s="256" t="s">
         <v>550</v>
       </c>
-      <c r="C183" s="258" t="s">
+      <c r="C183" s="257" t="s">
         <v>1842</v>
       </c>
       <c r="D183" s="2"/>
@@ -43052,7 +44896,7 @@
     <row r="185" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="217" t="s">
+      <c r="C185" s="216" t="s">
         <v>1798</v>
       </c>
       <c r="D185" s="2"/>
@@ -43098,7 +44942,7 @@
         <v>1804</v>
       </c>
       <c r="B189" s="128"/>
-      <c r="C189" s="248" t="s">
+      <c r="C189" s="247" t="s">
         <v>1805</v>
       </c>
       <c r="D189" s="130"/>
@@ -43110,10 +44954,10 @@
       <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="250" t="s">
+      <c r="A190" s="249" t="s">
         <v>1807</v>
       </c>
-      <c r="C190" s="217" t="s">
+      <c r="C190" s="216" t="s">
         <v>1812</v>
       </c>
       <c r="D190" s="132"/>
@@ -43134,7 +44978,7 @@
       <c r="A191" s="139" t="s">
         <v>1809</v>
       </c>
-      <c r="C191" s="217" t="s">
+      <c r="C191" s="216" t="s">
         <v>1813</v>
       </c>
       <c r="D191" s="132"/>
@@ -43152,7 +44996,7 @@
       <c r="A192" s="139" t="s">
         <v>1808</v>
       </c>
-      <c r="C192" s="217" t="s">
+      <c r="C192" s="216" t="s">
         <v>1814</v>
       </c>
       <c r="D192" s="132"/>
@@ -43166,11 +45010,11 @@
       <c r="W192" s="2"/>
     </row>
     <row r="193" spans="1:24" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="251" t="s">
+      <c r="A193" s="250" t="s">
         <v>1810</v>
       </c>
       <c r="B193" s="134"/>
-      <c r="C193" s="225" t="s">
+      <c r="C193" s="224" t="s">
         <v>1811</v>
       </c>
       <c r="D193" s="142"/>
@@ -43205,7 +45049,7 @@
       <c r="A195" s="152" t="s">
         <v>1817</v>
       </c>
-      <c r="B195" s="227" t="s">
+      <c r="B195" s="226" t="s">
         <v>1818</v>
       </c>
       <c r="C195" s="134" t="s">
@@ -43222,7 +45066,7 @@
       <c r="X195" s="2"/>
     </row>
     <row r="196" spans="1:24" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="204" t="s">
+      <c r="A196" s="203" t="s">
         <v>1820</v>
       </c>
       <c r="B196" s="128"/>
@@ -43238,7 +45082,7 @@
       <c r="X196" s="2"/>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A197" s="252" t="s">
+      <c r="A197" s="251" t="s">
         <v>1821</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -43290,7 +45134,7 @@
     </row>
     <row r="201" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A201" s="139"/>
-      <c r="C201" s="217" t="s">
+      <c r="C201" s="216" t="s">
         <v>1830</v>
       </c>
       <c r="D201" s="132"/>
@@ -43306,12 +45150,12 @@
       <c r="D202" s="142"/>
     </row>
     <row r="203" spans="1:24" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="253"/>
-      <c r="B203" s="254"/>
-      <c r="C203" s="254" t="s">
+      <c r="A203" s="252"/>
+      <c r="B203" s="253"/>
+      <c r="C203" s="253" t="s">
         <v>1834</v>
       </c>
-      <c r="D203" s="255"/>
+      <c r="D203" s="254"/>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204" s="19" t="s">
@@ -43324,7 +45168,7 @@
       <c r="A205" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="C205" s="256" t="s">
+      <c r="C205" s="255" t="s">
         <v>1837</v>
       </c>
       <c r="D205" s="2"/>
@@ -44591,12 +46435,4426 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899878E3-CD39-4A6E-ADCA-92CA7ADCA86E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:Y109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="62.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="69"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C3" s="168" t="s">
+        <v>1549</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="122" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="171" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B6" s="173" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C6" s="169" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="P6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A7" s="139"/>
+      <c r="B7" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C7" s="167" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>1546</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="172" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B8" s="134"/>
+      <c r="C8" s="170" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D8" s="142"/>
+      <c r="P8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="171" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B9" s="173" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C9" s="169" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D9" s="130"/>
+      <c r="P9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="171" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B10" s="173" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C10" s="169" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D10" s="130"/>
+      <c r="P10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="139" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="139" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>1589</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="174" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C13" s="167" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D13" s="132"/>
+      <c r="P13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="172" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B14" s="179" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C14" s="170" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D14" s="142" t="s">
+        <v>1591</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="171" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B15" s="173" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="P15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A16" s="180" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B16" s="175"/>
+      <c r="C16" s="176" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D16" s="181" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="180" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B17" s="188" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C17" s="176" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="P17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="180" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B18" s="188" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C18" s="176" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D18" s="181"/>
+      <c r="P18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="182" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B19" s="178" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C19" s="177" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D19" s="183" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="186" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B20" s="178" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C20" s="177" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D20" s="183" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A21" s="186" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B21" s="184" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C21" s="185" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D21" s="183" t="s">
+        <v>1567</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="172" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B22" s="187" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D22" s="142" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C23" s="266"/>
+      <c r="P23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C24" s="266"/>
+      <c r="P24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="266" t="s">
+        <v>1853</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="268" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B27" s="128"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="138"/>
+      <c r="P27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="152" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D28" s="142"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="270" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B29" s="128"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="130"/>
+    </row>
+    <row r="30" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="139"/>
+      <c r="C30" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D30" s="132"/>
+    </row>
+    <row r="31" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A31" s="139"/>
+      <c r="C31" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D31" s="132"/>
+    </row>
+    <row r="32" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="152"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D32" s="142"/>
+    </row>
+    <row r="33" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="270" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B33" s="128" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C33" s="128"/>
+      <c r="D33" s="130"/>
+    </row>
+    <row r="34" spans="1:23" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="152"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D34" s="142" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="271" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D35" s="254" t="s">
+        <v>1857</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="H52" s="70"/>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="H53" s="70"/>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="F54" s="71"/>
+      <c r="H54" s="70"/>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A68" s="77"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="64"/>
+      <c r="U68" s="64"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
+      <c r="X68" s="64"/>
+      <c r="Y68" s="64"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+      <c r="U70" s="64"/>
+      <c r="V70" s="64"/>
+      <c r="W70" s="64"/>
+      <c r="X70" s="64"/>
+      <c r="Y70" s="64"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="64"/>
+      <c r="Y72" s="64"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+      <c r="S76" s="64"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="64"/>
+      <c r="W76" s="64"/>
+      <c r="X76" s="64"/>
+      <c r="Y76" s="64"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="64"/>
+      <c r="S77" s="64"/>
+      <c r="U77" s="64"/>
+      <c r="V77" s="64"/>
+      <c r="W77" s="64"/>
+      <c r="X77" s="64"/>
+      <c r="Y77" s="64"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
+      <c r="R78" s="64"/>
+      <c r="S78" s="64"/>
+      <c r="U78" s="64"/>
+      <c r="V78" s="64"/>
+      <c r="W78" s="64"/>
+      <c r="X78" s="64"/>
+      <c r="Y78" s="64"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
+      <c r="R79" s="64"/>
+      <c r="S79" s="64"/>
+      <c r="U79" s="64"/>
+      <c r="V79" s="64"/>
+      <c r="W79" s="64"/>
+      <c r="X79" s="64"/>
+      <c r="Y79" s="64"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="64"/>
+      <c r="R80" s="64"/>
+      <c r="S80" s="64"/>
+      <c r="U80" s="64"/>
+      <c r="V80" s="64"/>
+      <c r="W80" s="64"/>
+      <c r="X80" s="64"/>
+      <c r="Y80" s="64"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
+      <c r="R81" s="64"/>
+      <c r="S81" s="64"/>
+      <c r="U81" s="64"/>
+      <c r="V81" s="64"/>
+      <c r="W81" s="64"/>
+      <c r="X81" s="64"/>
+      <c r="Y81" s="64"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A82" s="123"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="64"/>
+      <c r="N82" s="64"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
+      <c r="R82" s="64"/>
+      <c r="S82" s="64"/>
+      <c r="U82" s="64"/>
+      <c r="V82" s="64"/>
+      <c r="W82" s="64"/>
+      <c r="X82" s="64"/>
+      <c r="Y82" s="64"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="64"/>
+      <c r="R83" s="64"/>
+      <c r="S83" s="64"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="64"/>
+      <c r="Y83" s="64"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="64"/>
+      <c r="R84" s="64"/>
+      <c r="S84" s="64"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="64"/>
+      <c r="W84" s="64"/>
+      <c r="X84" s="64"/>
+      <c r="Y84" s="64"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="64"/>
+      <c r="U85" s="64"/>
+      <c r="V85" s="64"/>
+      <c r="W85" s="64"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="64"/>
+      <c r="U86" s="64"/>
+      <c r="V86" s="64"/>
+      <c r="W86" s="64"/>
+      <c r="X86" s="64"/>
+      <c r="Y86" s="64"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
+      <c r="N87" s="64"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
+      <c r="R87" s="64"/>
+      <c r="S87" s="64"/>
+      <c r="U87" s="64"/>
+      <c r="V87" s="64"/>
+      <c r="W87" s="64"/>
+      <c r="X87" s="64"/>
+      <c r="Y87" s="64"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="64"/>
+      <c r="N88" s="64"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="64"/>
+      <c r="R88" s="64"/>
+      <c r="S88" s="64"/>
+      <c r="U88" s="64"/>
+      <c r="V88" s="64"/>
+      <c r="W88" s="64"/>
+      <c r="X88" s="64"/>
+      <c r="Y88" s="64"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="K89" s="64"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="64"/>
+      <c r="N89" s="64"/>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="64"/>
+      <c r="R89" s="64"/>
+      <c r="S89" s="64"/>
+      <c r="U89" s="64"/>
+      <c r="V89" s="64"/>
+      <c r="W89" s="64"/>
+      <c r="X89" s="64"/>
+      <c r="Y89" s="64"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="64"/>
+      <c r="R90" s="64"/>
+      <c r="S90" s="64"/>
+      <c r="U90" s="64"/>
+      <c r="V90" s="64"/>
+      <c r="W90" s="64"/>
+      <c r="X90" s="64"/>
+      <c r="Y90" s="64"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="64"/>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="64"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="U91" s="64"/>
+      <c r="V91" s="64"/>
+      <c r="W91" s="64"/>
+      <c r="X91" s="64"/>
+      <c r="Y91" s="64"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
+      <c r="M92" s="64"/>
+      <c r="N92" s="64"/>
+      <c r="P92" s="64"/>
+      <c r="Q92" s="64"/>
+      <c r="R92" s="64"/>
+      <c r="S92" s="64"/>
+      <c r="U92" s="64"/>
+      <c r="V92" s="64"/>
+      <c r="W92" s="64"/>
+      <c r="X92" s="64"/>
+      <c r="Y92" s="64"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="64"/>
+      <c r="M93" s="64"/>
+      <c r="N93" s="64"/>
+      <c r="P93" s="64"/>
+      <c r="Q93" s="64"/>
+      <c r="R93" s="64"/>
+      <c r="S93" s="64"/>
+      <c r="U93" s="64"/>
+      <c r="V93" s="64"/>
+      <c r="W93" s="64"/>
+      <c r="X93" s="64"/>
+      <c r="Y93" s="64"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="64"/>
+      <c r="K94" s="64"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="64"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="64"/>
+      <c r="R94" s="64"/>
+      <c r="S94" s="64"/>
+      <c r="U94" s="64"/>
+      <c r="V94" s="64"/>
+      <c r="W94" s="64"/>
+      <c r="X94" s="64"/>
+      <c r="Y94" s="64"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="64"/>
+      <c r="R95" s="64"/>
+      <c r="S95" s="64"/>
+      <c r="U95" s="64"/>
+      <c r="V95" s="64"/>
+      <c r="W95" s="64"/>
+      <c r="X95" s="64"/>
+      <c r="Y95" s="64"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="64"/>
+      <c r="R96" s="64"/>
+      <c r="S96" s="64"/>
+      <c r="U96" s="64"/>
+      <c r="V96" s="64"/>
+      <c r="W96" s="64"/>
+      <c r="X96" s="64"/>
+      <c r="Y96" s="64"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
+      <c r="R97" s="64"/>
+      <c r="S97" s="64"/>
+      <c r="U97" s="64"/>
+      <c r="V97" s="64"/>
+      <c r="W97" s="64"/>
+      <c r="X97" s="64"/>
+      <c r="Y97" s="64"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A98" s="124"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="64"/>
+      <c r="R98" s="64"/>
+      <c r="S98" s="64"/>
+      <c r="U98" s="64"/>
+      <c r="V98" s="64"/>
+      <c r="W98" s="64"/>
+      <c r="X98" s="64"/>
+      <c r="Y98" s="64"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="64"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="64"/>
+      <c r="R99" s="64"/>
+      <c r="S99" s="64"/>
+      <c r="U99" s="64"/>
+      <c r="V99" s="64"/>
+      <c r="W99" s="64"/>
+      <c r="X99" s="64"/>
+      <c r="Y99" s="64"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
+      <c r="N100" s="64"/>
+      <c r="P100" s="64"/>
+      <c r="Q100" s="64"/>
+      <c r="R100" s="64"/>
+      <c r="S100" s="64"/>
+      <c r="U100" s="64"/>
+      <c r="V100" s="64"/>
+      <c r="W100" s="64"/>
+      <c r="X100" s="64"/>
+      <c r="Y100" s="64"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="K101" s="64"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="64"/>
+      <c r="N101" s="64"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="64"/>
+      <c r="R101" s="64"/>
+      <c r="S101" s="64"/>
+      <c r="U101" s="64"/>
+      <c r="V101" s="64"/>
+      <c r="W101" s="64"/>
+      <c r="X101" s="64"/>
+      <c r="Y101" s="64"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="64"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="64"/>
+      <c r="R102" s="64"/>
+      <c r="S102" s="64"/>
+      <c r="U102" s="64"/>
+      <c r="V102" s="64"/>
+      <c r="W102" s="64"/>
+      <c r="X102" s="64"/>
+      <c r="Y102" s="64"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B103" s="105"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
+      <c r="N103" s="64"/>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="64"/>
+      <c r="R103" s="64"/>
+      <c r="S103" s="64"/>
+      <c r="U103" s="64"/>
+      <c r="V103" s="64"/>
+      <c r="W103" s="64"/>
+      <c r="X103" s="64"/>
+      <c r="Y103" s="64"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C104" s="64"/>
+      <c r="D104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64"/>
+      <c r="K104" s="64"/>
+      <c r="L104" s="64"/>
+      <c r="M104" s="64"/>
+      <c r="N104" s="64"/>
+      <c r="P104" s="64"/>
+      <c r="Q104" s="64"/>
+      <c r="R104" s="64"/>
+      <c r="S104" s="64"/>
+      <c r="U104" s="64"/>
+      <c r="V104" s="64"/>
+      <c r="W104" s="64"/>
+      <c r="X104" s="64"/>
+      <c r="Y104" s="64"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
+      <c r="N105" s="64"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="64"/>
+      <c r="U105" s="64"/>
+      <c r="V105" s="64"/>
+      <c r="W105" s="64"/>
+      <c r="X105" s="64"/>
+      <c r="Y105" s="64"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G106" s="1"/>
+      <c r="H106" s="101"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G107" s="1"/>
+      <c r="H107" s="101"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G108" s="1"/>
+      <c r="H108" s="101"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G109" s="1"/>
+      <c r="H109" s="101"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{87CEFF7A-B137-446D-8986-0CAED95CA050}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6055AD6A-9C77-4292-BA08-F738B38A5154}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C79268F-C2FC-4EC5-84EF-67DC93E18BF0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="62.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="69"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C3" s="266" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="267" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="267" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="261" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F26" s="71"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="77"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A54" s="123"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="64"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="64"/>
+      <c r="U68" s="64"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
+      <c r="X68" s="64"/>
+      <c r="Y68" s="64"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A70" s="124"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+      <c r="U70" s="64"/>
+      <c r="V70" s="64"/>
+      <c r="W70" s="64"/>
+      <c r="X70" s="64"/>
+      <c r="Y70" s="64"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="64"/>
+      <c r="Y72" s="64"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B75" s="105"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+      <c r="S76" s="64"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="64"/>
+      <c r="W76" s="64"/>
+      <c r="X76" s="64"/>
+      <c r="Y76" s="64"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="64"/>
+      <c r="S77" s="64"/>
+      <c r="U77" s="64"/>
+      <c r="V77" s="64"/>
+      <c r="W77" s="64"/>
+      <c r="X77" s="64"/>
+      <c r="Y77" s="64"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G78" s="1"/>
+      <c r="H78" s="101"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G79" s="1"/>
+      <c r="H79" s="101"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+      <c r="H80" s="101"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G81" s="1"/>
+      <c r="H81" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB22B9C3-FD96-47D3-8A3E-F8FE23ABC0C0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="62.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="69"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C3" s="272" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="267" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="145" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="267" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="203" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F25" s="71"/>
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="77"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A53" s="123"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="64"/>
+      <c r="U54" s="64"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="64"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="64"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="64"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="64"/>
+      <c r="U68" s="64"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
+      <c r="X68" s="64"/>
+      <c r="Y68" s="64"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A69" s="124"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+      <c r="U70" s="64"/>
+      <c r="V70" s="64"/>
+      <c r="W70" s="64"/>
+      <c r="X70" s="64"/>
+      <c r="Y70" s="64"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="64"/>
+      <c r="Y72" s="64"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B74" s="105"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+      <c r="S76" s="64"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="64"/>
+      <c r="W76" s="64"/>
+      <c r="X76" s="64"/>
+      <c r="Y76" s="64"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G77" s="1"/>
+      <c r="H77" s="101"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G78" s="1"/>
+      <c r="H78" s="101"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G79" s="1"/>
+      <c r="H79" s="101"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+      <c r="H80" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B85AB8-23CF-4F56-A6DB-6A2152423DEF}">
   <dimension ref="A2:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44692,14 +50950,14 @@
         <v>283</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="F5" s="198" t="s">
+      <c r="F5" s="197" t="s">
         <v>1369</v>
       </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="200" t="s">
+      <c r="G5" s="198"/>
+      <c r="H5" s="199" t="s">
         <v>1368</v>
       </c>
-      <c r="I5" s="201"/>
+      <c r="I5" s="200"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="P5" s="23" t="s">
@@ -44722,13 +50980,13 @@
       <c r="C6" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="194" t="s">
+      <c r="F6" s="193" t="s">
         <v>1371</v>
       </c>
-      <c r="H6" s="195" t="s">
+      <c r="H6" s="194" t="s">
         <v>1370</v>
       </c>
-      <c r="I6" s="202"/>
+      <c r="I6" s="201"/>
       <c r="K6" s="23" t="s">
         <v>311</v>
       </c>
@@ -44755,13 +51013,13 @@
       <c r="C7" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="194" t="s">
+      <c r="F7" s="193" t="s">
         <v>1367</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="I7" s="202"/>
+      <c r="I7" s="201"/>
       <c r="K7" s="23" t="s">
         <v>308</v>
       </c>
@@ -44785,16 +51043,16 @@
       <c r="C8" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="F8" s="194" t="s">
+      <c r="F8" s="193" t="s">
         <v>1618</v>
       </c>
       <c r="G8" s="108" t="s">
         <v>1621</v>
       </c>
-      <c r="H8" s="196" t="s">
+      <c r="H8" s="195" t="s">
         <v>305</v>
       </c>
-      <c r="I8" s="202"/>
+      <c r="I8" s="201"/>
       <c r="K8" s="23" t="s">
         <v>310</v>
       </c>
@@ -44815,14 +51073,14 @@
       <c r="C9" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="197" t="s">
+      <c r="F9" s="196" t="s">
         <v>1619</v>
       </c>
-      <c r="G9" s="195" t="s">
+      <c r="G9" s="194" t="s">
         <v>1620</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="202"/>
+      <c r="I9" s="201"/>
       <c r="K9" s="23" t="s">
         <v>312</v>
       </c>
@@ -44848,7 +51106,7 @@
       <c r="H10" s="134" t="s">
         <v>1622</v>
       </c>
-      <c r="I10" s="203"/>
+      <c r="I10" s="202"/>
       <c r="K10" s="23" t="s">
         <v>315</v>
       </c>
@@ -45105,7 +51363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DA5458-BC0B-4F29-936A-BB513CB049EE}">
   <dimension ref="A1:V105"/>
   <sheetViews>
@@ -46147,7 +52405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06A3812-10A6-44F6-B24C-8EFE9EA0B788}">
   <dimension ref="A2:U7"/>
   <sheetViews>
@@ -46255,177 +52513,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89284B07-4C64-470D-8EC3-3CD3F518146E}">
-  <dimension ref="A2:U13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.36328125" style="108" customWidth="1"/>
-    <col min="2" max="2" width="49.1796875" style="108" customWidth="1"/>
-    <col min="3" max="3" width="56.453125" style="108" customWidth="1"/>
-    <col min="4" max="4" width="44.90625" style="108" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="67"/>
-    <col min="6" max="6" width="58.81640625" style="108" customWidth="1"/>
-    <col min="7" max="7" width="35" style="108" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="108" customWidth="1"/>
-    <col min="9" max="9" width="56.7265625" style="108" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="67"/>
-    <col min="11" max="11" width="32.36328125" style="108" customWidth="1"/>
-    <col min="12" max="12" width="35.26953125" style="108" customWidth="1"/>
-    <col min="13" max="13" width="62.36328125" style="108" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="108" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="67" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" style="108" customWidth="1"/>
-    <col min="17" max="17" width="44" style="108" customWidth="1"/>
-    <col min="18" max="19" width="8.7265625" style="108"/>
-    <col min="20" max="20" width="12.54296875" style="67" customWidth="1"/>
-    <col min="21" max="21" width="61.453125" style="108" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="108"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="E3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="T3" s="67"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="115" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="108" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="108" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B6" s="108" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C6" s="108" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="108" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C7" s="116" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="108" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C8" s="108" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
-      <c r="A9" s="108" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="108" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="377" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="261" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="108" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B13" s="108" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C13" s="117" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{E6D54D42-DBA8-4B1E-83F4-818693E0F904}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>